--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_NOx</t>
+  </si>
+  <si>
+    <t>02_taxi_NOx</t>
+  </si>
+  <si>
+    <t>03_van_NOx</t>
+  </si>
+  <si>
+    <t>04_bus_NOx</t>
+  </si>
+  <si>
+    <t>05_LightTruck_NOx</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_NOx</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_NOx</t>
+  </si>
+  <si>
+    <t>Total_NOx (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +397,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_NOx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_NOx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_NOx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_NOx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_NOx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_NOx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_NOx (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>886.1874903116698</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.08756066969393153</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.09002907037424564</v>
+      </c>
+      <c r="D2">
         <v>108.3704484810964</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>22.31776188191411</v>
+      </c>
+      <c r="F2">
         <v>143.9844291490476</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>143.544215405146</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>8.24299807308585</v>
       </c>
-      <c r="H2" t="n">
-        <v>1290.417142089739</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>1312.737372372334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>771.6370462713825</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.2001386735861292</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.20578073228399</v>
+      </c>
+      <c r="D3">
         <v>53.58978221592679</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>16.00141417948558</v>
+      </c>
+      <c r="F3">
         <v>171.9969640029479</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>115.363755939105</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>7.14393166334107</v>
       </c>
-      <c r="H3" t="n">
-        <v>1119.931618766289</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1135.938675004473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>823.9514222897812</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1938843400365627</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.1993500844001153</v>
+      </c>
+      <c r="D4">
         <v>94.07983989018257</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>17.26468371997128</v>
+      </c>
+      <c r="F4">
         <v>142.8639277548917</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>124.1701495222428</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>8.79253127795824</v>
       </c>
-      <c r="H4" t="n">
-        <v>1194.051755075093</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1211.321904539428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>759.9114102672588</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1344681713156806</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.1382589295033058</v>
+      </c>
+      <c r="D5">
         <v>73.83481105305471</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>17.68577356679985</v>
+      </c>
+      <c r="F5">
         <v>120.4538998717713</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>118.0056740140464</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>9.891597687703021</v>
       </c>
-      <c r="H5" t="n">
-        <v>1082.23186106515</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>1099.921425390138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>785.6176122762997</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.1532311719643802</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.1575508731549299</v>
+      </c>
+      <c r="D6">
         <v>113.1339846780677</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>17.68577356679985</v>
+      </c>
+      <c r="F6">
         <v>146.2254319373596</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>103.9154442810259</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>9.342064482830633</v>
       </c>
-      <c r="H6" t="n">
-        <v>1158.387768827548</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1176.077862095538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>809.519870284706</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1438496716400304</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.1479049013291178</v>
+      </c>
+      <c r="D7">
         <v>111.9431006288248</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>14.73814463899988</v>
+      </c>
+      <c r="F7">
         <v>151.2676882110617</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>120.6475920889877</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>11.54019730232019</v>
       </c>
-      <c r="H7" t="n">
-        <v>1205.062298187541</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>1219.804498056229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>858.6773443019945</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1501040051895969</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.1543355492129925</v>
+      </c>
+      <c r="D8">
         <v>114.3248687273105</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>12.63269540485704</v>
+      </c>
+      <c r="F8">
         <v>152.9484403022958</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>68.68986994847468</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>12.63926371206497</v>
       </c>
-      <c r="H8" t="n">
-        <v>1207.42989099733</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>1220.06681794621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1004.796808353384</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.128213837766114</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.1318282816194311</v>
+      </c>
+      <c r="D9">
         <v>134.5698975644383</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>17.68577356679985</v>
+      </c>
+      <c r="F9">
         <v>145.6651812402816</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>68.68986994847468</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>9.891597687703021</v>
       </c>
-      <c r="H9" t="n">
-        <v>1363.741568632048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>1381.430956642701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1137.837678400175</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.1219595042165475</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.1253976337355564</v>
+      </c>
+      <c r="D10">
         <v>92.88895584093974</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>29.89737912482833</v>
+      </c>
+      <c r="F10">
         <v>98.60412268572911</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>37.86749240749249</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>15.93646294129931</v>
       </c>
-      <c r="H10" t="n">
-        <v>1383.256671779852</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>1413.1574890342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1146.857398403347</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1188323374417642</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.122182309793619</v>
+      </c>
+      <c r="D11">
         <v>82.17099939775441</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>29.89737912482833</v>
+      </c>
+      <c r="F11">
         <v>80.11584968215492</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>7.92575422482401</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>6.59439845846868</v>
       </c>
-      <c r="H11" t="n">
-        <v>1323.783232503991</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>1353.683961601171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>861.8342463031048</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D12">
         <v>58.35331841289806</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>27.37084004385692</v>
+      </c>
+      <c r="F12">
         <v>54.34431761656662</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>15.85150844964802</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.64859961461717</v>
       </c>
-      <c r="H12" t="n">
-        <v>992.0882793987807</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1019.460706271646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>705.3421042480674</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.08443350291914825</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.0868137464323083</v>
+      </c>
+      <c r="D13">
         <v>39.29917362501298</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>30.73955881848546</v>
+      </c>
+      <c r="F13">
         <v>33.05479112760238</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>14.97086909133423</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>1.64859961461717</v>
       </c>
-      <c r="H13" t="n">
-        <v>794.3999712095532</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>825.1419102715518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>515.9279841814503</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.04690750162174904</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.04822985912906016</v>
+      </c>
+      <c r="D14">
         <v>33.3447533787989</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>23.15994157557124</v>
+      </c>
+      <c r="F14">
         <v>29.69328694513434</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>7.92575422482401</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>1.09906640974478</v>
       </c>
-      <c r="H14" t="n">
-        <v>588.037752641574</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>611.1990165746525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>362.5927441275229</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D15">
         <v>16.67237668939945</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>11.79051571119991</v>
+      </c>
+      <c r="F15">
         <v>16.24727021526219</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>16.73214780796179</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>1.09906640974478</v>
       </c>
-      <c r="H15" t="n">
-        <v>413.3998942518372</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>425.1919967920459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>216.0222940759745</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.06567050227044864</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.06752180278068423</v>
+      </c>
+      <c r="D16">
         <v>14.29060859091381</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>5.053078161942818</v>
+      </c>
+      <c r="F16">
         <v>14.56651812402816</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>10.56767229976535</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.09906640974478</v>
       </c>
-      <c r="H16" t="n">
-        <v>256.611830002697</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>261.6667594651501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>159.1980580559894</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.1031965035678479</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.1061056900839324</v>
+      </c>
+      <c r="D17">
         <v>1.190884049242818</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>2.526539080971409</v>
+      </c>
+      <c r="F17">
         <v>22.97027858019826</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>14.09022973302046</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>197.5526469220188</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>200.0820951895063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>92.90311603267382</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.07505200259479845</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.07716777460649626</v>
+      </c>
+      <c r="D18">
         <v>1.190884049242818</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.684359387314272</v>
+      </c>
+      <c r="F18">
         <v>17.9280223064962</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>13.20959037470668</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.54953320487239</v>
       </c>
-      <c r="H18" t="n">
-        <v>125.8561979705867</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>127.5426731299127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>71.25578802506047</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.1063236703426311</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.1093210140258697</v>
+      </c>
+      <c r="D19">
         <v>9.527072393942547</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.421089846828568</v>
+      </c>
+      <c r="F19">
         <v>11.76526463863813</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>17.61278716627558</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>110.2672358942594</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>110.6913230847712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>88.3932560310877</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D20">
         <v>7.145304295456905</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>3.789808621457112</v>
+      </c>
+      <c r="F20">
         <v>14.56651812402816</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>14.97086909133423</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.54953320487239</v>
       </c>
-      <c r="H20" t="n">
-        <v>125.6817697487255</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>129.4731651991914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>130.3349540458385</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.01563583387391635</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.01607661970968672</v>
+      </c>
+      <c r="D21">
         <v>15.48149264015662</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.10544923414284</v>
+      </c>
+      <c r="F21">
         <v>26.89203345974431</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>25.53854139109959</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.54953320487239</v>
       </c>
-      <c r="H21" t="n">
-        <v>198.8121905755853</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>200.9180805955639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>345.4552761214956</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0312716677478327</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.03215323941937345</v>
+      </c>
+      <c r="D22">
         <v>30.96298528031324</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>15.15923448582845</v>
+      </c>
+      <c r="F22">
         <v>57.70582179903464</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>39.62877112412004</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>1.09906640974478</v>
       </c>
-      <c r="H22" t="n">
-        <v>474.8831924024561</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>490.0433084599561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>566.8894021993734</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.06879766904523191</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.07073712672262156</v>
+      </c>
+      <c r="D23">
         <v>61.92597056062649</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>37.05590652091399</v>
+      </c>
+      <c r="F23">
         <v>101.9656268681972</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>52.83836149882671</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>7.14393166334107</v>
       </c>
-      <c r="H23" t="n">
-        <v>790.8320904594101</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>827.8899364380014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>952.933418335144</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.06879766904523191</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.07073712672262156</v>
+      </c>
+      <c r="D24">
         <v>101.2251441856395</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>46.74097299797106</v>
+      </c>
+      <c r="F24">
         <v>128.2974096308634</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>100.3928868477708</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>14.28786332668214</v>
       </c>
-      <c r="H24" t="n">
-        <v>1297.205519995145</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1343.948432450794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1095.895980385424</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.0625433354956654</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.06430647883874689</v>
+      </c>
+      <c r="D25">
         <v>92.88895584093974</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>26.10757050337122</v>
+      </c>
+      <c r="F25">
         <v>106.4476324448212</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>58.1221976487094</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>7.69346486821346</v>
       </c>
-      <c r="H25" t="n">
-        <v>1361.110774523603</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1387.220108170318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>886.1874903116698</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.08756066969393153</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.09002907037424564</v>
+      </c>
+      <c r="D26">
         <v>108.3704484810964</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>22.31776188191411</v>
+      </c>
+      <c r="F26">
         <v>143.9844291490476</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>143.544215405146</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>8.24299807308585</v>
       </c>
-      <c r="H26" t="n">
-        <v>1290.417142089739</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>1312.737372372334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>762.1663402680518</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.1719941726130798</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.1768428168065539</v>
+      </c>
+      <c r="D27">
         <v>97.65249203791105</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>17.26468371997128</v>
+      </c>
+      <c r="F27">
         <v>168.6354598204799</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>129.4539856721255</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>12.08973050719258</v>
       </c>
-      <c r="H27" t="n">
-        <v>1170.170002478374</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>1187.439534842539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>802.7550802823272</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.1594855055139467</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.1639815210388046</v>
+      </c>
+      <c r="D28">
         <v>92.88895584093974</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>24.42321111605694</v>
+      </c>
+      <c r="F28">
         <v>138.9421728753456</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>150.5893302716562</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>12.63926371206497</v>
       </c>
-      <c r="H28" t="n">
-        <v>1197.974288487848</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1222.401995619429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>800.0491642813751</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.1469768384148137</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.1511202252710552</v>
+      </c>
+      <c r="D29">
         <v>78.59834725002597</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>16.42250402631415</v>
+      </c>
+      <c r="F29">
         <v>127.1769082367074</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>112.7218378641637</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>7.69346486821346</v>
       </c>
-      <c r="H29" t="n">
-        <v>1126.3866993389</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1142.813346752071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>846.5007222977121</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.1532311719643802</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.1575508731549299</v>
+      </c>
+      <c r="D30">
         <v>76.21657915154037</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>19.37013295411413</v>
+      </c>
+      <c r="F30">
         <v>158.5509472730758</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>93.34777198126052</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>11.54019730232019</v>
       </c>
-      <c r="H30" t="n">
-        <v>1186.309449177873</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>1205.683901833178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>816.2846602870846</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.1219595042165475</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.1253976337355564</v>
+      </c>
+      <c r="D31">
         <v>108.3704484810964</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>17.68577356679985</v>
+      </c>
+      <c r="F31">
         <v>150.1471868169057</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>88.94457518969166</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>13.18879691693736</v>
       </c>
-      <c r="H31" t="n">
-        <v>1177.057627195933</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1194.746838892251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>864.5401623040568</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.1407225048652471</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.1446895773871805</v>
+      </c>
+      <c r="D32">
         <v>107.1795644318536</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>18.52795326045699</v>
+      </c>
+      <c r="F32">
         <v>146.2254319373596</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>88.06393583137789</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>7.69346486821346</v>
       </c>
-      <c r="H32" t="n">
-        <v>1213.843281877726</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>1232.375202210706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1004.796808353384</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.128213837766114</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.1318282816194311</v>
+      </c>
+      <c r="D33">
         <v>134.5698975644383</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>17.68577356679985</v>
+      </c>
+      <c r="F33">
         <v>145.6651812402816</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>68.68986994847468</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>9.891597687703021</v>
       </c>
-      <c r="H33" t="n">
-        <v>1363.741568632048</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>1381.430956642701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1137.837678400175</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.1219595042165475</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.1253976337355564</v>
+      </c>
+      <c r="D34">
         <v>92.88895584093974</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>29.89737912482833</v>
+      </c>
+      <c r="F34">
         <v>98.60412268572911</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>37.86749240749249</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>15.93646294129931</v>
       </c>
-      <c r="H34" t="n">
-        <v>1383.256671779852</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>1413.1574890342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1146.857398403347</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.1188323374417642</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.122182309793619</v>
+      </c>
+      <c r="D35">
         <v>82.17099939775441</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>29.89737912482833</v>
+      </c>
+      <c r="F35">
         <v>80.11584968215492</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>7.92575422482401</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>6.59439845846868</v>
       </c>
-      <c r="H35" t="n">
-        <v>1323.783232503991</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>1353.683961601171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>861.8342463031048</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D36">
         <v>58.35331841289806</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>27.37084004385692</v>
+      </c>
+      <c r="F36">
         <v>54.34431761656662</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>15.85150844964802</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.64859961461717</v>
       </c>
-      <c r="H36" t="n">
-        <v>992.0882793987807</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1019.460706271646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>705.3421042480674</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.08443350291914825</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.0868137464323083</v>
+      </c>
+      <c r="D37">
         <v>39.29917362501298</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>30.73955881848546</v>
+      </c>
+      <c r="F37">
         <v>33.05479112760238</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>14.97086909133423</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>1.64859961461717</v>
       </c>
-      <c r="H37" t="n">
-        <v>794.3999712095532</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>825.1419102715518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>515.9279841814503</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.04690750162174904</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.04822985912906016</v>
+      </c>
+      <c r="D38">
         <v>33.3447533787989</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>23.15994157557124</v>
+      </c>
+      <c r="F38">
         <v>29.69328694513434</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>7.92575422482401</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.09906640974478</v>
       </c>
-      <c r="H38" t="n">
-        <v>588.037752641574</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>611.1990165746525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>362.5927441275229</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D39">
         <v>16.67237668939945</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>11.79051571119991</v>
+      </c>
+      <c r="F39">
         <v>16.24727021526219</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>16.73214780796179</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>1.09906640974478</v>
       </c>
-      <c r="H39" t="n">
-        <v>413.3998942518372</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>425.1919967920459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>216.0222940759745</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.06567050227044864</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.06752180278068423</v>
+      </c>
+      <c r="D40">
         <v>14.29060859091381</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>5.053078161942818</v>
+      </c>
+      <c r="F40">
         <v>14.56651812402816</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>10.56767229976535</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.09906640974478</v>
       </c>
-      <c r="H40" t="n">
-        <v>256.611830002697</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>261.6667594651501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>159.1980580559894</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.1031965035678479</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.1061056900839324</v>
+      </c>
+      <c r="D41">
         <v>1.190884049242818</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>2.526539080971409</v>
+      </c>
+      <c r="F41">
         <v>22.97027858019826</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>14.09022973302046</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>197.5526469220188</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>200.0820951895063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>92.90311603267382</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.07505200259479845</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.07716777460649626</v>
+      </c>
+      <c r="D42">
         <v>1.190884049242818</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.684359387314272</v>
+      </c>
+      <c r="F42">
         <v>17.9280223064962</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>13.20959037470668</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.54953320487239</v>
       </c>
-      <c r="H42" t="n">
-        <v>125.8561979705867</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>127.5426731299127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>71.25578802506047</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.1063236703426311</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.1093210140258697</v>
+      </c>
+      <c r="D43">
         <v>9.527072393942547</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.421089846828568</v>
+      </c>
+      <c r="F43">
         <v>11.76526463863813</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>17.61278716627558</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>110.2672358942594</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>110.6913230847712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>88.3932560310877</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D44">
         <v>7.145304295456905</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>3.789808621457112</v>
+      </c>
+      <c r="F44">
         <v>14.56651812402816</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>14.97086909133423</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.54953320487239</v>
       </c>
-      <c r="H44" t="n">
-        <v>125.6817697487255</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>129.4731651991914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>130.3349540458385</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.01563583387391635</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.01607661970968672</v>
+      </c>
+      <c r="D45">
         <v>15.48149264015662</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>2.10544923414284</v>
+      </c>
+      <c r="F45">
         <v>26.89203345974431</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>25.53854139109959</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.54953320487239</v>
       </c>
-      <c r="H45" t="n">
-        <v>198.8121905755853</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>200.9180805955639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>345.4552761214956</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.0312716677478327</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.03215323941937345</v>
+      </c>
+      <c r="D46">
         <v>30.96298528031324</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>15.15923448582845</v>
+      </c>
+      <c r="F46">
         <v>57.70582179903464</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>39.62877112412004</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>1.09906640974478</v>
       </c>
-      <c r="H46" t="n">
-        <v>474.8831924024561</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>490.0433084599561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>566.8894021993734</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.06879766904523191</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.07073712672262156</v>
+      </c>
+      <c r="D47">
         <v>61.92597056062649</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>37.05590652091399</v>
+      </c>
+      <c r="F47">
         <v>101.9656268681972</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>52.83836149882671</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>7.14393166334107</v>
       </c>
-      <c r="H47" t="n">
-        <v>790.8320904594101</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>827.8899364380014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>952.933418335144</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.06879766904523191</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.07073712672262156</v>
+      </c>
+      <c r="D48">
         <v>101.2251441856395</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>46.74097299797106</v>
+      </c>
+      <c r="F48">
         <v>128.2974096308634</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>100.3928868477708</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>14.28786332668214</v>
       </c>
-      <c r="H48" t="n">
-        <v>1297.205519995145</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1343.948432450794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1095.895980385424</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.0625433354956654</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.06430647883874689</v>
+      </c>
+      <c r="D49">
         <v>92.88895584093974</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>26.10757050337122</v>
+      </c>
+      <c r="F49">
         <v>106.4476324448212</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>58.1221976487094</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>7.69346486821346</v>
       </c>
-      <c r="H49" t="n">
-        <v>1361.110774523603</v>
+      <c r="I49">
+        <v>1387.220108170318</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>886.1874903116698</v>
+        <v>2725.953154608901</v>
       </c>
       <c r="C2">
-        <v>0.09002907037424564</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D2">
-        <v>108.3704484810964</v>
+        <v>333.3524441870989</v>
       </c>
       <c r="E2">
-        <v>22.31776188191411</v>
+        <v>68.65045384969012</v>
       </c>
       <c r="F2">
-        <v>143.9844291490476</v>
+        <v>442.9026736942188</v>
       </c>
       <c r="G2">
-        <v>143.544215405146</v>
+        <v>441.548556132179</v>
       </c>
       <c r="H2">
-        <v>8.24299807308585</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I2">
-        <v>1312.737372372334</v>
+        <v>4038.040054179537</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>771.6370462713825</v>
+        <v>2373.590762104748</v>
       </c>
       <c r="C3">
-        <v>0.20578073228399</v>
+        <v>0.6329909217404864</v>
       </c>
       <c r="D3">
-        <v>53.58978221592679</v>
+        <v>164.8446152573566</v>
       </c>
       <c r="E3">
-        <v>16.00141417948558</v>
+        <v>49.22108011864578</v>
       </c>
       <c r="F3">
-        <v>171.9969640029479</v>
+        <v>529.0705090432882</v>
       </c>
       <c r="G3">
-        <v>115.363755939105</v>
+        <v>354.8641770142052</v>
       </c>
       <c r="H3">
-        <v>7.14393166334107</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I3">
-        <v>1135.938675004473</v>
+        <v>3494.199194215281</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>823.9514222897812</v>
+        <v>2534.512169705069</v>
       </c>
       <c r="C4">
-        <v>0.1993500844001153</v>
+        <v>0.6132099554360964</v>
       </c>
       <c r="D4">
-        <v>94.07983989018257</v>
+        <v>289.3938801184704</v>
       </c>
       <c r="E4">
-        <v>17.26468371997128</v>
+        <v>53.10695486485466</v>
       </c>
       <c r="F4">
-        <v>142.8639277548917</v>
+        <v>439.4559602802561</v>
       </c>
       <c r="G4">
-        <v>124.1701495222428</v>
+        <v>381.9530454885719</v>
       </c>
       <c r="H4">
-        <v>8.79253127795824</v>
+        <v>27.04622739113391</v>
       </c>
       <c r="I4">
-        <v>1211.321904539428</v>
+        <v>3726.081447803793</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>759.9114102672588</v>
+        <v>2337.522170746055</v>
       </c>
       <c r="C5">
-        <v>0.1382589295033058</v>
+        <v>0.4252907755443893</v>
       </c>
       <c r="D5">
-        <v>73.83481105305471</v>
+        <v>227.1192476879134</v>
       </c>
       <c r="E5">
-        <v>17.68577356679985</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F5">
-        <v>120.4538998717713</v>
+        <v>370.5216920010001</v>
       </c>
       <c r="G5">
-        <v>118.0056740140464</v>
+        <v>362.9908375565153</v>
       </c>
       <c r="H5">
-        <v>9.891597687703021</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I5">
-        <v>1099.921425390138</v>
+        <v>3383.408491028978</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>785.6176122762997</v>
+        <v>2416.595621032421</v>
       </c>
       <c r="C6">
-        <v>0.1575508731549299</v>
+        <v>0.48463367445756</v>
       </c>
       <c r="D6">
-        <v>113.1339846780677</v>
+        <v>348.0052988766417</v>
       </c>
       <c r="E6">
-        <v>17.68577356679985</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F6">
-        <v>146.2254319373596</v>
+        <v>449.7961005221444</v>
       </c>
       <c r="G6">
-        <v>103.9154442810259</v>
+        <v>319.6486479975282</v>
       </c>
       <c r="H6">
-        <v>9.342064482830633</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I6">
-        <v>1176.077862095538</v>
+        <v>3617.669165153197</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>809.519870284706</v>
+        <v>2490.120057263602</v>
       </c>
       <c r="C7">
-        <v>0.1479049013291178</v>
+        <v>0.4549622250009747</v>
       </c>
       <c r="D7">
-        <v>111.9431006288248</v>
+        <v>344.3420852042561</v>
       </c>
       <c r="E7">
-        <v>14.73814463899988</v>
+        <v>45.3352053724369</v>
       </c>
       <c r="F7">
-        <v>151.2676882110617</v>
+        <v>465.3063108849769</v>
       </c>
       <c r="G7">
-        <v>120.6475920889877</v>
+        <v>371.1174980988253</v>
       </c>
       <c r="H7">
-        <v>11.54019730232019</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I7">
-        <v>1219.804498056229</v>
+        <v>3752.174292499961</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>858.6773443019945</v>
+        <v>2641.330690267352</v>
       </c>
       <c r="C8">
-        <v>0.1543355492129925</v>
+        <v>0.4747431913053647</v>
       </c>
       <c r="D8">
-        <v>114.3248687273105</v>
+        <v>351.6685125490273</v>
       </c>
       <c r="E8">
-        <v>12.63269540485704</v>
+        <v>38.85874746208877</v>
       </c>
       <c r="F8">
-        <v>152.9484403022958</v>
+        <v>470.4763810059211</v>
       </c>
       <c r="G8">
-        <v>68.68986994847468</v>
+        <v>211.293174100061</v>
       </c>
       <c r="H8">
-        <v>12.63926371206497</v>
+        <v>38.87895187475498</v>
       </c>
       <c r="I8">
-        <v>1220.06681794621</v>
+        <v>3752.98120045051</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1004.796808353384</v>
+        <v>3090.800828737215</v>
       </c>
       <c r="C9">
-        <v>0.1318282816194311</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D9">
-        <v>134.5698975644383</v>
+        <v>413.9431449795842</v>
       </c>
       <c r="E9">
-        <v>17.68577356679985</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F9">
-        <v>145.6651812402816</v>
+        <v>448.0727438151629</v>
       </c>
       <c r="G9">
-        <v>68.68986994847468</v>
+        <v>211.293174100061</v>
       </c>
       <c r="H9">
-        <v>9.891597687703021</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I9">
-        <v>1381.430956642701</v>
+        <v>4249.344653703214</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1137.837678400175</v>
+        <v>3500.040615307001</v>
       </c>
       <c r="C10">
-        <v>0.1253976337355564</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D10">
-        <v>92.88895584093974</v>
+        <v>285.7306664460848</v>
       </c>
       <c r="E10">
-        <v>29.89737912482833</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F10">
-        <v>98.60412268572911</v>
+        <v>303.3107804287258</v>
       </c>
       <c r="G10">
-        <v>37.86749240749249</v>
+        <v>116.4821344397773</v>
       </c>
       <c r="H10">
-        <v>15.93646294129931</v>
+        <v>49.02128714643021</v>
       </c>
       <c r="I10">
-        <v>1413.1574890342</v>
+        <v>4346.936914937897</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1146.857398403347</v>
+        <v>3527.785685582917</v>
       </c>
       <c r="C11">
-        <v>0.122182309793619</v>
+        <v>0.3758383597834139</v>
       </c>
       <c r="D11">
-        <v>82.17099939775441</v>
+        <v>252.7617433946133</v>
       </c>
       <c r="E11">
-        <v>29.89737912482833</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F11">
-        <v>80.11584968215492</v>
+        <v>246.4400090983396</v>
       </c>
       <c r="G11">
-        <v>7.92575422482401</v>
+        <v>24.37998162693012</v>
       </c>
       <c r="H11">
-        <v>6.59439845846868</v>
+        <v>20.28467054335043</v>
       </c>
       <c r="I11">
-        <v>1353.683961601171</v>
+        <v>4163.993630932878</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>861.8342463031048</v>
+        <v>2651.041464863923</v>
       </c>
       <c r="C12">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D12">
-        <v>58.35331841289806</v>
+        <v>179.4974699468993</v>
       </c>
       <c r="E12">
-        <v>27.37084004385692</v>
+        <v>84.19395283452567</v>
       </c>
       <c r="F12">
-        <v>54.34431761656662</v>
+        <v>167.1656005771954</v>
       </c>
       <c r="G12">
-        <v>15.85150844964802</v>
+        <v>48.75996325386025</v>
       </c>
       <c r="H12">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I12">
-        <v>1019.460706271646</v>
+        <v>3135.907647808981</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>705.3421042480674</v>
+        <v>2169.664495576755</v>
       </c>
       <c r="C13">
-        <v>0.0868137464323083</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D13">
-        <v>39.29917362501298</v>
+        <v>120.8860511887281</v>
       </c>
       <c r="E13">
-        <v>30.73955881848546</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F13">
-        <v>33.05479112760238</v>
+        <v>101.6780457119023</v>
       </c>
       <c r="G13">
-        <v>14.97086909133423</v>
+        <v>46.05107640642358</v>
       </c>
       <c r="H13">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I13">
-        <v>825.1419102715518</v>
+        <v>2538.174165055839</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>515.9279841814503</v>
+        <v>1587.018019782484</v>
       </c>
       <c r="C14">
-        <v>0.04822985912906016</v>
+        <v>0.1483572472829265</v>
       </c>
       <c r="D14">
-        <v>33.3447533787989</v>
+        <v>102.5699828267996</v>
       </c>
       <c r="E14">
-        <v>23.15994157557124</v>
+        <v>71.2410370138294</v>
       </c>
       <c r="F14">
-        <v>29.69328694513434</v>
+        <v>91.33790547001399</v>
       </c>
       <c r="G14">
-        <v>7.92575422482401</v>
+        <v>24.37998162693012</v>
       </c>
       <c r="H14">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I14">
-        <v>611.1990165746525</v>
+        <v>1880.076062391232</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>362.5927441275229</v>
+        <v>1115.351825091886</v>
       </c>
       <c r="C15">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D15">
-        <v>16.67237668939945</v>
+        <v>51.2849914133998</v>
       </c>
       <c r="E15">
-        <v>11.79051571119991</v>
+        <v>36.26816429794953</v>
       </c>
       <c r="F15">
-        <v>16.24727021526219</v>
+        <v>49.97734450246048</v>
       </c>
       <c r="G15">
-        <v>16.73214780796179</v>
+        <v>51.46885010129693</v>
       </c>
       <c r="H15">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I15">
-        <v>425.1919967920459</v>
+        <v>1307.909982527625</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>216.0222940759745</v>
+        <v>664.4944331082258</v>
       </c>
       <c r="C16">
-        <v>0.06752180278068423</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D16">
-        <v>14.29060859091381</v>
+        <v>43.95856406862841</v>
       </c>
       <c r="E16">
-        <v>5.053078161942818</v>
+        <v>15.54349898483551</v>
       </c>
       <c r="F16">
-        <v>14.56651812402816</v>
+        <v>44.8072743815163</v>
       </c>
       <c r="G16">
-        <v>10.56767229976535</v>
+        <v>32.50664216924017</v>
       </c>
       <c r="H16">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I16">
-        <v>261.6667594651501</v>
+        <v>804.8988912825341</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>159.1980580559894</v>
+        <v>489.700490369945</v>
       </c>
       <c r="C17">
-        <v>0.1061056900839324</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D17">
-        <v>1.190884049242818</v>
+        <v>3.663213672385699</v>
       </c>
       <c r="E17">
-        <v>2.526539080971409</v>
+        <v>7.771749492417753</v>
       </c>
       <c r="F17">
-        <v>22.97027858019826</v>
+        <v>70.65762498623721</v>
       </c>
       <c r="G17">
-        <v>14.09022973302046</v>
+        <v>43.3421895589869</v>
       </c>
       <c r="I17">
-        <v>200.0820951895063</v>
+        <v>615.461654023995</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>92.90311603267382</v>
+        <v>285.774223841951</v>
       </c>
       <c r="C18">
-        <v>0.07716777460649626</v>
+        <v>0.2373715956526824</v>
       </c>
       <c r="D18">
-        <v>1.190884049242818</v>
+        <v>3.663213672385699</v>
       </c>
       <c r="E18">
-        <v>1.684359387314272</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F18">
-        <v>17.9280223064962</v>
+        <v>55.14741462340466</v>
       </c>
       <c r="G18">
-        <v>13.20959037470668</v>
+        <v>40.63330271155023</v>
       </c>
       <c r="H18">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I18">
-        <v>127.5426731299127</v>
+        <v>392.3270819851687</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>71.25578802506047</v>
+        <v>219.1860551797488</v>
       </c>
       <c r="C19">
-        <v>0.1093210140258697</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D19">
-        <v>9.527072393942547</v>
+        <v>29.30570937908559</v>
       </c>
       <c r="E19">
-        <v>0.421089846828568</v>
+        <v>1.295291582069625</v>
       </c>
       <c r="F19">
-        <v>11.76526463863813</v>
+        <v>36.19049084660933</v>
       </c>
       <c r="G19">
-        <v>17.61278716627558</v>
+        <v>54.17773694873362</v>
       </c>
       <c r="I19">
-        <v>110.6913230847712</v>
+        <v>340.4915603634216</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>88.3932560310877</v>
+        <v>271.9016887039921</v>
       </c>
       <c r="C20">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D20">
-        <v>7.145304295456905</v>
+        <v>21.97928203431421</v>
       </c>
       <c r="E20">
-        <v>3.789808621457112</v>
+        <v>11.65762423862663</v>
       </c>
       <c r="F20">
-        <v>14.56651812402816</v>
+        <v>44.8072743815163</v>
       </c>
       <c r="G20">
-        <v>14.97086909133423</v>
+        <v>46.05107640642358</v>
       </c>
       <c r="H20">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I20">
-        <v>129.4731651991914</v>
+        <v>398.2653636735582</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>130.3349540458385</v>
+        <v>400.916265487009</v>
       </c>
       <c r="C21">
-        <v>0.01607661970968672</v>
+        <v>0.04945241576097551</v>
       </c>
       <c r="D21">
-        <v>15.48149264015662</v>
+        <v>47.6217777410141</v>
       </c>
       <c r="E21">
-        <v>2.10544923414284</v>
+        <v>6.47645791034813</v>
       </c>
       <c r="F21">
-        <v>26.89203345974431</v>
+        <v>82.72112193510698</v>
       </c>
       <c r="G21">
-        <v>25.53854139109959</v>
+        <v>78.55771857566376</v>
       </c>
       <c r="H21">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I21">
-        <v>200.9180805955639</v>
+        <v>618.0331832768489</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>345.4552761214956</v>
+        <v>1062.636191567643</v>
       </c>
       <c r="C22">
-        <v>0.03215323941937345</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D22">
-        <v>30.96298528031324</v>
+        <v>95.2435554820282</v>
       </c>
       <c r="E22">
-        <v>15.15923448582845</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F22">
-        <v>57.70582179903464</v>
+        <v>177.5057408190838</v>
       </c>
       <c r="G22">
-        <v>39.62877112412004</v>
+        <v>121.8999081346506</v>
       </c>
       <c r="H22">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I22">
-        <v>490.0433084599561</v>
+        <v>1507.395576213325</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>566.8894021993734</v>
+        <v>1743.777666841419</v>
       </c>
       <c r="C23">
-        <v>0.07073712672262156</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D23">
-        <v>61.92597056062649</v>
+        <v>190.4871109640564</v>
       </c>
       <c r="E23">
-        <v>37.05590652091399</v>
+        <v>113.9856592221271</v>
       </c>
       <c r="F23">
-        <v>101.9656268681972</v>
+        <v>313.6509206706141</v>
       </c>
       <c r="G23">
-        <v>52.83836149882671</v>
+        <v>162.5332108462009</v>
       </c>
       <c r="H23">
-        <v>7.14393166334107</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I23">
-        <v>827.8899364380014</v>
+        <v>2546.627218929062</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>952.933418335144</v>
+        <v>2931.26667465069</v>
       </c>
       <c r="C24">
-        <v>0.07073712672262156</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D24">
-        <v>101.2251441856395</v>
+        <v>311.3731621527847</v>
       </c>
       <c r="E24">
-        <v>46.74097299797106</v>
+        <v>143.7773656097285</v>
       </c>
       <c r="F24">
-        <v>128.2974096308634</v>
+        <v>394.6486858987396</v>
       </c>
       <c r="G24">
-        <v>100.3928868477708</v>
+        <v>308.8131006077815</v>
       </c>
       <c r="H24">
-        <v>14.28786332668214</v>
+        <v>43.95011951059259</v>
       </c>
       <c r="I24">
-        <v>1343.948432450794</v>
+        <v>4134.046699059664</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1095.895980385424</v>
+        <v>3371.026038523985</v>
       </c>
       <c r="C25">
-        <v>0.06430647883874689</v>
+        <v>0.197809663043902</v>
       </c>
       <c r="D25">
-        <v>92.88895584093974</v>
+        <v>285.7306664460848</v>
       </c>
       <c r="E25">
-        <v>26.10757050337122</v>
+        <v>80.3080780883168</v>
       </c>
       <c r="F25">
-        <v>106.4476324448212</v>
+        <v>327.4377743264653</v>
       </c>
       <c r="G25">
-        <v>58.1221976487094</v>
+        <v>178.7865319308209</v>
       </c>
       <c r="H25">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I25">
-        <v>1387.220108170318</v>
+        <v>4267.152347945959</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>886.1874903116698</v>
+        <v>2725.953154608901</v>
       </c>
       <c r="C26">
-        <v>0.09002907037424564</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D26">
-        <v>108.3704484810964</v>
+        <v>333.3524441870989</v>
       </c>
       <c r="E26">
-        <v>22.31776188191411</v>
+        <v>68.65045384969012</v>
       </c>
       <c r="F26">
-        <v>143.9844291490476</v>
+        <v>442.9026736942188</v>
       </c>
       <c r="G26">
-        <v>143.544215405146</v>
+        <v>441.548556132179</v>
       </c>
       <c r="H26">
-        <v>8.24299807308585</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I26">
-        <v>1312.737372372334</v>
+        <v>4038.040054179537</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>762.1663402680518</v>
+        <v>2344.458438315035</v>
       </c>
       <c r="C27">
-        <v>0.1768428168065539</v>
+        <v>0.5439765733707305</v>
       </c>
       <c r="D27">
-        <v>97.65249203791105</v>
+        <v>300.3835211356276</v>
       </c>
       <c r="E27">
-        <v>17.26468371997128</v>
+        <v>53.10695486485466</v>
       </c>
       <c r="F27">
-        <v>168.6354598204799</v>
+        <v>518.7303688014001</v>
       </c>
       <c r="G27">
-        <v>129.4539856721255</v>
+        <v>398.206366573192</v>
       </c>
       <c r="H27">
-        <v>12.08973050719258</v>
+        <v>37.18856266280912</v>
       </c>
       <c r="I27">
-        <v>1187.439534842539</v>
+        <v>3652.618188926289</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>802.7550802823272</v>
+        <v>2469.311254556662</v>
       </c>
       <c r="C28">
-        <v>0.1639815210388046</v>
+        <v>0.5044146407619501</v>
       </c>
       <c r="D28">
-        <v>92.88895584093974</v>
+        <v>285.7306664460848</v>
       </c>
       <c r="E28">
-        <v>24.42321111605694</v>
+        <v>75.12691176003825</v>
       </c>
       <c r="F28">
-        <v>138.9421728753456</v>
+        <v>427.3924633313862</v>
       </c>
       <c r="G28">
-        <v>150.5893302716562</v>
+        <v>463.2196509116725</v>
       </c>
       <c r="H28">
-        <v>12.63926371206497</v>
+        <v>38.87895187475498</v>
       </c>
       <c r="I28">
-        <v>1222.401995619429</v>
+        <v>3760.164313521361</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>800.0491642813751</v>
+        <v>2460.987733473888</v>
       </c>
       <c r="C29">
-        <v>0.1511202252710552</v>
+        <v>0.4648527081531697</v>
       </c>
       <c r="D29">
-        <v>78.59834725002597</v>
+        <v>241.7721023774563</v>
       </c>
       <c r="E29">
-        <v>16.42250402631415</v>
+        <v>50.5163717007154</v>
       </c>
       <c r="F29">
-        <v>127.1769082367074</v>
+        <v>391.2019724847769</v>
       </c>
       <c r="G29">
-        <v>112.7218378641637</v>
+        <v>346.7375164718952</v>
       </c>
       <c r="H29">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I29">
-        <v>1142.813346752071</v>
+        <v>3515.345998184127</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>846.5007222977121</v>
+        <v>2603.874845394863</v>
       </c>
       <c r="C30">
-        <v>0.1575508731549299</v>
+        <v>0.48463367445756</v>
       </c>
       <c r="D30">
-        <v>76.21657915154037</v>
+        <v>234.4456750326847</v>
       </c>
       <c r="E30">
-        <v>19.37013295411413</v>
+        <v>59.58341277520279</v>
       </c>
       <c r="F30">
-        <v>158.5509472730758</v>
+        <v>487.7099480757353</v>
       </c>
       <c r="G30">
-        <v>93.34777198126052</v>
+        <v>287.1420058282881</v>
       </c>
       <c r="H30">
-        <v>11.54019730232019</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I30">
-        <v>1205.683901833178</v>
+        <v>3708.738694232095</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>816.2846602870846</v>
+        <v>2510.928859970539</v>
       </c>
       <c r="C31">
-        <v>0.1253976337355564</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D31">
-        <v>108.3704484810964</v>
+        <v>333.3524441870989</v>
       </c>
       <c r="E31">
-        <v>17.68577356679985</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F31">
-        <v>150.1471868169057</v>
+        <v>461.859597471014</v>
       </c>
       <c r="G31">
-        <v>88.94457518969166</v>
+        <v>273.5975715911047</v>
       </c>
       <c r="H31">
-        <v>13.18879691693736</v>
+        <v>40.56934108670086</v>
       </c>
       <c r="I31">
-        <v>1194.746838892251</v>
+        <v>3675.095789596317</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>864.5401623040568</v>
+        <v>2659.3649859467</v>
       </c>
       <c r="C32">
-        <v>0.1446895773871805</v>
+        <v>0.4450717418487795</v>
       </c>
       <c r="D32">
-        <v>107.1795644318536</v>
+        <v>329.6892305147131</v>
       </c>
       <c r="E32">
-        <v>18.52795326045699</v>
+        <v>56.99282961106354</v>
       </c>
       <c r="F32">
-        <v>146.2254319373596</v>
+        <v>449.7961005221444</v>
       </c>
       <c r="G32">
-        <v>88.06393583137789</v>
+        <v>270.8886847436681</v>
       </c>
       <c r="H32">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I32">
-        <v>1232.375202210706</v>
+        <v>3790.84235204738</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1004.796808353384</v>
+        <v>3090.800828737215</v>
       </c>
       <c r="C33">
-        <v>0.1318282816194311</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D33">
-        <v>134.5698975644383</v>
+        <v>413.9431449795842</v>
       </c>
       <c r="E33">
-        <v>17.68577356679985</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F33">
-        <v>145.6651812402816</v>
+        <v>448.0727438151629</v>
       </c>
       <c r="G33">
-        <v>68.68986994847468</v>
+        <v>211.293174100061</v>
       </c>
       <c r="H33">
-        <v>9.891597687703021</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I33">
-        <v>1381.430956642701</v>
+        <v>4249.344653703214</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1137.837678400175</v>
+        <v>3500.040615307001</v>
       </c>
       <c r="C34">
-        <v>0.1253976337355564</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D34">
-        <v>92.88895584093974</v>
+        <v>285.7306664460848</v>
       </c>
       <c r="E34">
-        <v>29.89737912482833</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F34">
-        <v>98.60412268572911</v>
+        <v>303.3107804287258</v>
       </c>
       <c r="G34">
-        <v>37.86749240749249</v>
+        <v>116.4821344397773</v>
       </c>
       <c r="H34">
-        <v>15.93646294129931</v>
+        <v>49.02128714643021</v>
       </c>
       <c r="I34">
-        <v>1413.1574890342</v>
+        <v>4346.936914937897</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1146.857398403347</v>
+        <v>3527.785685582917</v>
       </c>
       <c r="C35">
-        <v>0.122182309793619</v>
+        <v>0.3758383597834139</v>
       </c>
       <c r="D35">
-        <v>82.17099939775441</v>
+        <v>252.7617433946133</v>
       </c>
       <c r="E35">
-        <v>29.89737912482833</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F35">
-        <v>80.11584968215492</v>
+        <v>246.4400090983396</v>
       </c>
       <c r="G35">
-        <v>7.92575422482401</v>
+        <v>24.37998162693012</v>
       </c>
       <c r="H35">
-        <v>6.59439845846868</v>
+        <v>20.28467054335043</v>
       </c>
       <c r="I35">
-        <v>1353.683961601171</v>
+        <v>4163.993630932878</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>861.8342463031048</v>
+        <v>2651.041464863923</v>
       </c>
       <c r="C36">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D36">
-        <v>58.35331841289806</v>
+        <v>179.4974699468993</v>
       </c>
       <c r="E36">
-        <v>27.37084004385692</v>
+        <v>84.19395283452567</v>
       </c>
       <c r="F36">
-        <v>54.34431761656662</v>
+        <v>167.1656005771954</v>
       </c>
       <c r="G36">
-        <v>15.85150844964802</v>
+        <v>48.75996325386025</v>
       </c>
       <c r="H36">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I36">
-        <v>1019.460706271646</v>
+        <v>3135.907647808981</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>705.3421042480674</v>
+        <v>2169.664495576755</v>
       </c>
       <c r="C37">
-        <v>0.0868137464323083</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D37">
-        <v>39.29917362501298</v>
+        <v>120.8860511887281</v>
       </c>
       <c r="E37">
-        <v>30.73955881848546</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F37">
-        <v>33.05479112760238</v>
+        <v>101.6780457119023</v>
       </c>
       <c r="G37">
-        <v>14.97086909133423</v>
+        <v>46.05107640642358</v>
       </c>
       <c r="H37">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I37">
-        <v>825.1419102715518</v>
+        <v>2538.174165055839</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>515.9279841814503</v>
+        <v>1587.018019782484</v>
       </c>
       <c r="C38">
-        <v>0.04822985912906016</v>
+        <v>0.1483572472829265</v>
       </c>
       <c r="D38">
-        <v>33.3447533787989</v>
+        <v>102.5699828267996</v>
       </c>
       <c r="E38">
-        <v>23.15994157557124</v>
+        <v>71.2410370138294</v>
       </c>
       <c r="F38">
-        <v>29.69328694513434</v>
+        <v>91.33790547001399</v>
       </c>
       <c r="G38">
-        <v>7.92575422482401</v>
+        <v>24.37998162693012</v>
       </c>
       <c r="H38">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I38">
-        <v>611.1990165746525</v>
+        <v>1880.076062391232</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>362.5927441275229</v>
+        <v>1115.351825091886</v>
       </c>
       <c r="C39">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D39">
-        <v>16.67237668939945</v>
+        <v>51.2849914133998</v>
       </c>
       <c r="E39">
-        <v>11.79051571119991</v>
+        <v>36.26816429794953</v>
       </c>
       <c r="F39">
-        <v>16.24727021526219</v>
+        <v>49.97734450246048</v>
       </c>
       <c r="G39">
-        <v>16.73214780796179</v>
+        <v>51.46885010129693</v>
       </c>
       <c r="H39">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I39">
-        <v>425.1919967920459</v>
+        <v>1307.909982527625</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>216.0222940759745</v>
+        <v>664.4944331082258</v>
       </c>
       <c r="C40">
-        <v>0.06752180278068423</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D40">
-        <v>14.29060859091381</v>
+        <v>43.95856406862841</v>
       </c>
       <c r="E40">
-        <v>5.053078161942818</v>
+        <v>15.54349898483551</v>
       </c>
       <c r="F40">
-        <v>14.56651812402816</v>
+        <v>44.8072743815163</v>
       </c>
       <c r="G40">
-        <v>10.56767229976535</v>
+        <v>32.50664216924017</v>
       </c>
       <c r="H40">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I40">
-        <v>261.6667594651501</v>
+        <v>804.8988912825341</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>159.1980580559894</v>
+        <v>489.700490369945</v>
       </c>
       <c r="C41">
-        <v>0.1061056900839324</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D41">
-        <v>1.190884049242818</v>
+        <v>3.663213672385699</v>
       </c>
       <c r="E41">
-        <v>2.526539080971409</v>
+        <v>7.771749492417753</v>
       </c>
       <c r="F41">
-        <v>22.97027858019826</v>
+        <v>70.65762498623721</v>
       </c>
       <c r="G41">
-        <v>14.09022973302046</v>
+        <v>43.3421895589869</v>
       </c>
       <c r="I41">
-        <v>200.0820951895063</v>
+        <v>615.461654023995</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>92.90311603267382</v>
+        <v>285.774223841951</v>
       </c>
       <c r="C42">
-        <v>0.07716777460649626</v>
+        <v>0.2373715956526824</v>
       </c>
       <c r="D42">
-        <v>1.190884049242818</v>
+        <v>3.663213672385699</v>
       </c>
       <c r="E42">
-        <v>1.684359387314272</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F42">
-        <v>17.9280223064962</v>
+        <v>55.14741462340466</v>
       </c>
       <c r="G42">
-        <v>13.20959037470668</v>
+        <v>40.63330271155023</v>
       </c>
       <c r="H42">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I42">
-        <v>127.5426731299127</v>
+        <v>392.3270819851687</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>71.25578802506047</v>
+        <v>219.1860551797488</v>
       </c>
       <c r="C43">
-        <v>0.1093210140258697</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D43">
-        <v>9.527072393942547</v>
+        <v>29.30570937908559</v>
       </c>
       <c r="E43">
-        <v>0.421089846828568</v>
+        <v>1.295291582069625</v>
       </c>
       <c r="F43">
-        <v>11.76526463863813</v>
+        <v>36.19049084660933</v>
       </c>
       <c r="G43">
-        <v>17.61278716627558</v>
+        <v>54.17773694873362</v>
       </c>
       <c r="I43">
-        <v>110.6913230847712</v>
+        <v>340.4915603634216</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>88.3932560310877</v>
+        <v>271.9016887039921</v>
       </c>
       <c r="C44">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D44">
-        <v>7.145304295456905</v>
+        <v>21.97928203431421</v>
       </c>
       <c r="E44">
-        <v>3.789808621457112</v>
+        <v>11.65762423862663</v>
       </c>
       <c r="F44">
-        <v>14.56651812402816</v>
+        <v>44.8072743815163</v>
       </c>
       <c r="G44">
-        <v>14.97086909133423</v>
+        <v>46.05107640642358</v>
       </c>
       <c r="H44">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I44">
-        <v>129.4731651991914</v>
+        <v>398.2653636735582</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>130.3349540458385</v>
+        <v>400.916265487009</v>
       </c>
       <c r="C45">
-        <v>0.01607661970968672</v>
+        <v>0.04945241576097551</v>
       </c>
       <c r="D45">
-        <v>15.48149264015662</v>
+        <v>47.6217777410141</v>
       </c>
       <c r="E45">
-        <v>2.10544923414284</v>
+        <v>6.47645791034813</v>
       </c>
       <c r="F45">
-        <v>26.89203345974431</v>
+        <v>82.72112193510698</v>
       </c>
       <c r="G45">
-        <v>25.53854139109959</v>
+        <v>78.55771857566376</v>
       </c>
       <c r="H45">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I45">
-        <v>200.9180805955639</v>
+        <v>618.0331832768489</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>345.4552761214956</v>
+        <v>1062.636191567643</v>
       </c>
       <c r="C46">
-        <v>0.03215323941937345</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D46">
-        <v>30.96298528031324</v>
+        <v>95.2435554820282</v>
       </c>
       <c r="E46">
-        <v>15.15923448582845</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F46">
-        <v>57.70582179903464</v>
+        <v>177.5057408190838</v>
       </c>
       <c r="G46">
-        <v>39.62877112412004</v>
+        <v>121.8999081346506</v>
       </c>
       <c r="H46">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I46">
-        <v>490.0433084599561</v>
+        <v>1507.395576213325</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>566.8894021993734</v>
+        <v>1743.777666841419</v>
       </c>
       <c r="C47">
-        <v>0.07073712672262156</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D47">
-        <v>61.92597056062649</v>
+        <v>190.4871109640564</v>
       </c>
       <c r="E47">
-        <v>37.05590652091399</v>
+        <v>113.9856592221271</v>
       </c>
       <c r="F47">
-        <v>101.9656268681972</v>
+        <v>313.6509206706141</v>
       </c>
       <c r="G47">
-        <v>52.83836149882671</v>
+        <v>162.5332108462009</v>
       </c>
       <c r="H47">
-        <v>7.14393166334107</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I47">
-        <v>827.8899364380014</v>
+        <v>2546.627218929062</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>952.933418335144</v>
+        <v>2931.26667465069</v>
       </c>
       <c r="C48">
-        <v>0.07073712672262156</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D48">
-        <v>101.2251441856395</v>
+        <v>311.3731621527847</v>
       </c>
       <c r="E48">
-        <v>46.74097299797106</v>
+        <v>143.7773656097285</v>
       </c>
       <c r="F48">
-        <v>128.2974096308634</v>
+        <v>394.6486858987396</v>
       </c>
       <c r="G48">
-        <v>100.3928868477708</v>
+        <v>308.8131006077815</v>
       </c>
       <c r="H48">
-        <v>14.28786332668214</v>
+        <v>43.95011951059259</v>
       </c>
       <c r="I48">
-        <v>1343.948432450794</v>
+        <v>4134.046699059664</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1095.895980385424</v>
+        <v>3371.026038523985</v>
       </c>
       <c r="C49">
-        <v>0.06430647883874689</v>
+        <v>0.197809663043902</v>
       </c>
       <c r="D49">
-        <v>92.88895584093974</v>
+        <v>285.7306664460848</v>
       </c>
       <c r="E49">
-        <v>26.10757050337122</v>
+        <v>80.3080780883168</v>
       </c>
       <c r="F49">
-        <v>106.4476324448212</v>
+        <v>327.4377743264653</v>
       </c>
       <c r="G49">
-        <v>58.1221976487094</v>
+        <v>178.7865319308209</v>
       </c>
       <c r="H49">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I49">
-        <v>1387.220108170318</v>
+        <v>4267.152347945959</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2725.953154608901</v>
+        <v>852.492148474724</v>
       </c>
       <c r="C2">
-        <v>0.2769335282614628</v>
+        <v>0.08660591180488267</v>
       </c>
       <c r="D2">
-        <v>333.3524441870989</v>
+        <v>104.2498991091916</v>
       </c>
       <c r="E2">
-        <v>68.65045384969012</v>
+        <v>21.46917777994019</v>
       </c>
       <c r="F2">
-        <v>442.9026736942188</v>
+        <v>138.5097360255097</v>
       </c>
       <c r="G2">
-        <v>441.548556132179</v>
+        <v>138.0862604467754</v>
       </c>
       <c r="H2">
-        <v>25.35583817918803</v>
+        <v>7.929576093120609</v>
       </c>
       <c r="I2">
-        <v>4038.040054179537</v>
+        <v>1262.823403841066</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2373.590762104748</v>
+        <v>742.2972346260831</v>
       </c>
       <c r="C3">
-        <v>0.6329909217404864</v>
+        <v>0.1979563698397318</v>
       </c>
       <c r="D3">
-        <v>164.8446152573566</v>
+        <v>51.5521479111387</v>
       </c>
       <c r="E3">
-        <v>49.22108011864578</v>
+        <v>15.39299538939108</v>
       </c>
       <c r="F3">
-        <v>529.0705090432882</v>
+        <v>165.4571554857256</v>
       </c>
       <c r="G3">
-        <v>354.8641770142052</v>
+        <v>110.97730134066</v>
       </c>
       <c r="H3">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I3">
-        <v>3494.199194215281</v>
+        <v>1092.747090403543</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2534.512169705069</v>
+        <v>792.6224708719189</v>
       </c>
       <c r="C4">
-        <v>0.6132099554360964</v>
+        <v>0.1917702332822402</v>
       </c>
       <c r="D4">
-        <v>289.3938801184704</v>
+        <v>90.50265966622128</v>
       </c>
       <c r="E4">
-        <v>53.10695486485466</v>
+        <v>16.6082318675009</v>
       </c>
       <c r="F4">
-        <v>439.4559602802561</v>
+        <v>137.4318392471011</v>
       </c>
       <c r="G4">
-        <v>381.9530454885719</v>
+        <v>119.448851061321</v>
       </c>
       <c r="H4">
-        <v>27.04622739113391</v>
+        <v>8.458214499328649</v>
       </c>
       <c r="I4">
-        <v>3726.081447803793</v>
+        <v>1165.264037446674</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2337.522170746055</v>
+        <v>731.0174402951197</v>
       </c>
       <c r="C5">
-        <v>0.4252907755443893</v>
+        <v>0.1330019359860698</v>
       </c>
       <c r="D5">
-        <v>227.1192476879134</v>
+        <v>71.02740378867996</v>
       </c>
       <c r="E5">
-        <v>54.40224644692428</v>
+        <v>17.01331069353751</v>
       </c>
       <c r="F5">
-        <v>370.5216920010001</v>
+        <v>115.8739036789283</v>
       </c>
       <c r="G5">
-        <v>362.9908375565153</v>
+        <v>113.5187662568583</v>
       </c>
       <c r="H5">
-        <v>30.42700581502564</v>
+        <v>9.51549131174473</v>
       </c>
       <c r="I5">
-        <v>3383.408491028978</v>
+        <v>1058.099317960854</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2416.595621032421</v>
+        <v>755.7462201745393</v>
       </c>
       <c r="C6">
-        <v>0.48463367445756</v>
+        <v>0.1515603456585448</v>
       </c>
       <c r="D6">
-        <v>348.0052988766417</v>
+        <v>108.8323122568484</v>
       </c>
       <c r="E6">
-        <v>54.40224644692428</v>
+        <v>17.01331069353751</v>
       </c>
       <c r="F6">
-        <v>449.7961005221444</v>
+        <v>140.6655295823269</v>
       </c>
       <c r="G6">
-        <v>319.6486479975282</v>
+        <v>99.96428670380055</v>
       </c>
       <c r="H6">
-        <v>28.73661660307977</v>
+        <v>8.986852905536688</v>
       </c>
       <c r="I6">
-        <v>3617.669165153197</v>
+        <v>1131.360072662248</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2490.120057263602</v>
+        <v>778.7396470799646</v>
       </c>
       <c r="C7">
-        <v>0.4549622250009747</v>
+        <v>0.1422811408223073</v>
       </c>
       <c r="D7">
-        <v>344.3420852042561</v>
+        <v>107.6867089699341</v>
       </c>
       <c r="E7">
-        <v>45.3352053724369</v>
+        <v>14.17775891128125</v>
       </c>
       <c r="F7">
-        <v>465.3063108849769</v>
+        <v>145.5160650851658</v>
       </c>
       <c r="G7">
-        <v>371.1174980988253</v>
+        <v>116.0602311730566</v>
       </c>
       <c r="H7">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I7">
-        <v>3752.174292499961</v>
+        <v>1173.424098890594</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2641.330690267352</v>
+        <v>826.0280156213106</v>
       </c>
       <c r="C8">
-        <v>0.4747431913053647</v>
+        <v>0.1484672773797989</v>
       </c>
       <c r="D8">
-        <v>351.6685125490273</v>
+        <v>109.9779155437626</v>
       </c>
       <c r="E8">
-        <v>38.85874746208877</v>
+        <v>12.15236478109822</v>
       </c>
       <c r="F8">
-        <v>470.4763810059211</v>
+        <v>147.1329102527788</v>
       </c>
       <c r="G8">
-        <v>211.293174100061</v>
+        <v>66.07808782115629</v>
       </c>
       <c r="H8">
-        <v>38.87895187475498</v>
+        <v>12.15868334278493</v>
       </c>
       <c r="I8">
-        <v>3752.98120045051</v>
+        <v>1173.676444640271</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3090.800828737215</v>
+        <v>966.5916065148525</v>
       </c>
       <c r="C9">
-        <v>0.4055098092399991</v>
+        <v>0.1268157994285782</v>
       </c>
       <c r="D9">
-        <v>413.9431449795842</v>
+        <v>129.4531714213038</v>
       </c>
       <c r="E9">
-        <v>54.40224644692428</v>
+        <v>17.01331069353751</v>
       </c>
       <c r="F9">
-        <v>448.0727438151629</v>
+        <v>140.1265811931226</v>
       </c>
       <c r="G9">
-        <v>211.293174100061</v>
+        <v>66.07808782115629</v>
       </c>
       <c r="H9">
-        <v>30.42700581502564</v>
+        <v>9.51549131174473</v>
       </c>
       <c r="I9">
-        <v>4249.344653703214</v>
+        <v>1328.905064755146</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3500.040615307001</v>
+        <v>1094.573888346936</v>
       </c>
       <c r="C10">
-        <v>0.3857288429356089</v>
+        <v>0.1206296628710866</v>
       </c>
       <c r="D10">
-        <v>285.7306664460848</v>
+        <v>89.35705637930707</v>
       </c>
       <c r="E10">
-        <v>91.96570232694343</v>
+        <v>28.76059664859912</v>
       </c>
       <c r="F10">
-        <v>303.3107804287258</v>
+        <v>94.85491649995996</v>
       </c>
       <c r="G10">
-        <v>116.4821344397773</v>
+        <v>36.42766379884257</v>
       </c>
       <c r="H10">
-        <v>49.02128714643021</v>
+        <v>15.33051378003318</v>
       </c>
       <c r="I10">
-        <v>4346.936914937897</v>
+        <v>1359.425265116549</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3527.785685582917</v>
+        <v>1103.250653216908</v>
       </c>
       <c r="C11">
-        <v>0.3758383597834139</v>
+        <v>0.1175365945923408</v>
       </c>
       <c r="D11">
-        <v>252.7617433946133</v>
+        <v>79.04662679707933</v>
       </c>
       <c r="E11">
-        <v>91.96570232694343</v>
+        <v>28.76059664859912</v>
       </c>
       <c r="F11">
-        <v>246.4400090983396</v>
+        <v>77.06961965621744</v>
       </c>
       <c r="G11">
-        <v>24.37998162693012</v>
+        <v>7.624394748594959</v>
       </c>
       <c r="H11">
-        <v>20.28467054335043</v>
+        <v>6.343660874496489</v>
       </c>
       <c r="I11">
-        <v>4163.993630932878</v>
+        <v>1302.213088536488</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2651.041464863923</v>
+        <v>829.0648833258006</v>
       </c>
       <c r="C12">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D12">
-        <v>179.4974699468993</v>
+        <v>56.13456105879546</v>
       </c>
       <c r="E12">
-        <v>84.19395283452567</v>
+        <v>26.33012369237948</v>
       </c>
       <c r="F12">
-        <v>167.1656005771954</v>
+        <v>52.27799375281885</v>
       </c>
       <c r="G12">
-        <v>48.75996325386025</v>
+        <v>15.24878949718992</v>
       </c>
       <c r="H12">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I12">
-        <v>3135.907647808981</v>
+        <v>980.6979417746259</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2169.664495576755</v>
+        <v>678.5230128317905</v>
       </c>
       <c r="C13">
-        <v>0.2670430451092678</v>
+        <v>0.08351284352613687</v>
       </c>
       <c r="D13">
-        <v>120.8860511887281</v>
+        <v>37.80490846816837</v>
       </c>
       <c r="E13">
-        <v>94.55628549108272</v>
+        <v>29.57075430067233</v>
       </c>
       <c r="F13">
-        <v>101.6780457119023</v>
+        <v>31.79795496305475</v>
       </c>
       <c r="G13">
-        <v>46.05107640642358</v>
+        <v>14.40163452512381</v>
       </c>
       <c r="H13">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I13">
-        <v>2538.174165055839</v>
+        <v>793.76769315096</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1587.018019782484</v>
+        <v>496.3109505623838</v>
       </c>
       <c r="C14">
-        <v>0.1483572472829265</v>
+        <v>0.04639602418118716</v>
       </c>
       <c r="D14">
-        <v>102.5699828267996</v>
+        <v>32.0768920335974</v>
       </c>
       <c r="E14">
-        <v>71.2410370138294</v>
+        <v>22.27933543201339</v>
       </c>
       <c r="F14">
-        <v>91.33790547001399</v>
+        <v>28.56426462782885</v>
       </c>
       <c r="G14">
-        <v>24.37998162693012</v>
+        <v>7.624394748594959</v>
       </c>
       <c r="H14">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I14">
-        <v>1880.076062391232</v>
+        <v>587.9595102410156</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1115.351825091886</v>
+        <v>348.805947772864</v>
       </c>
       <c r="C15">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D15">
-        <v>51.2849914133998</v>
+        <v>16.0384460167987</v>
       </c>
       <c r="E15">
-        <v>36.26816429794953</v>
+        <v>11.34220712902501</v>
       </c>
       <c r="F15">
-        <v>49.97734450246048</v>
+        <v>15.62950328692522</v>
       </c>
       <c r="G15">
-        <v>51.46885010129693</v>
+        <v>16.09594446925603</v>
       </c>
       <c r="H15">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I15">
-        <v>1307.909982527625</v>
+        <v>409.0250007163025</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>664.4944331082258</v>
+        <v>207.8085186358233</v>
       </c>
       <c r="C16">
-        <v>0.2077001461960971</v>
+        <v>0.06495443385366202</v>
       </c>
       <c r="D16">
-        <v>43.95856406862841</v>
+        <v>13.74723944297032</v>
       </c>
       <c r="E16">
-        <v>15.54349898483551</v>
+        <v>4.860945912439289</v>
       </c>
       <c r="F16">
-        <v>44.8072743815163</v>
+        <v>14.01265811931227</v>
       </c>
       <c r="G16">
-        <v>32.50664216924017</v>
+        <v>10.16585966479328</v>
       </c>
       <c r="H16">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I16">
-        <v>804.8988912825341</v>
+        <v>251.7174530216083</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>489.700490369945</v>
+        <v>153.1448999550013</v>
       </c>
       <c r="C17">
-        <v>0.3263859440224383</v>
+        <v>0.1020712531986117</v>
       </c>
       <c r="D17">
-        <v>3.663213672385699</v>
+        <v>1.145603286914192</v>
       </c>
       <c r="E17">
-        <v>7.771749492417753</v>
+        <v>2.430472956219644</v>
       </c>
       <c r="F17">
-        <v>70.65762498623721</v>
+        <v>22.09688395737703</v>
       </c>
       <c r="G17">
-        <v>43.3421895589869</v>
+        <v>13.5544795530577</v>
       </c>
       <c r="I17">
-        <v>615.461654023995</v>
+        <v>192.4744109617685</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>285.774223841951</v>
+        <v>89.37067816070903</v>
       </c>
       <c r="C18">
-        <v>0.2373715956526824</v>
+        <v>0.07423363868989943</v>
       </c>
       <c r="D18">
-        <v>3.663213672385699</v>
+        <v>1.145603286914192</v>
       </c>
       <c r="E18">
-        <v>5.181166328278501</v>
+        <v>1.620315304146429</v>
       </c>
       <c r="F18">
-        <v>55.14741462340466</v>
+        <v>17.24634845453817</v>
       </c>
       <c r="G18">
-        <v>40.63330271155023</v>
+        <v>12.7073245809916</v>
       </c>
       <c r="H18">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I18">
-        <v>392.3270819851687</v>
+        <v>122.6931418321974</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>219.1860551797488</v>
+        <v>68.54644247277682</v>
       </c>
       <c r="C19">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D19">
-        <v>29.30570937908559</v>
+        <v>9.164826295313539</v>
       </c>
       <c r="E19">
-        <v>1.295291582069625</v>
+        <v>0.4050788260366072</v>
       </c>
       <c r="F19">
-        <v>36.19049084660933</v>
+        <v>11.31791617329067</v>
       </c>
       <c r="G19">
-        <v>54.17773694873362</v>
+        <v>16.94309944132213</v>
       </c>
       <c r="I19">
-        <v>340.4915603634216</v>
+        <v>106.4825275302171</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>271.9016887039921</v>
+        <v>85.03229572572306</v>
       </c>
       <c r="C20">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D20">
-        <v>21.97928203431421</v>
+        <v>6.87361972148516</v>
       </c>
       <c r="E20">
-        <v>11.65762423862663</v>
+        <v>3.645709434329465</v>
       </c>
       <c r="F20">
-        <v>44.8072743815163</v>
+        <v>14.01265811931227</v>
       </c>
       <c r="G20">
-        <v>46.05107640642358</v>
+        <v>14.40163452512381</v>
       </c>
       <c r="H20">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I20">
-        <v>398.2653636735582</v>
+        <v>124.5502311611992</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>400.916265487009</v>
+        <v>125.3792523710917</v>
       </c>
       <c r="C21">
-        <v>0.04945241576097551</v>
+        <v>0.01546534139372905</v>
       </c>
       <c r="D21">
-        <v>47.6217777410141</v>
+        <v>14.8928427298845</v>
       </c>
       <c r="E21">
-        <v>6.47645791034813</v>
+        <v>2.025394130183036</v>
       </c>
       <c r="F21">
-        <v>82.72112193510698</v>
+        <v>25.86952268180727</v>
       </c>
       <c r="G21">
-        <v>78.55771857566376</v>
+        <v>24.5674941899171</v>
       </c>
       <c r="H21">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I21">
-        <v>618.0331832768489</v>
+        <v>193.2786098504854</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1062.636191567643</v>
+        <v>332.320094519918</v>
       </c>
       <c r="C22">
-        <v>0.09890483152195102</v>
+        <v>0.0309306827874581</v>
       </c>
       <c r="D22">
-        <v>95.2435554820282</v>
+        <v>29.785685459769</v>
       </c>
       <c r="E22">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F22">
-        <v>177.5057408190838</v>
+        <v>55.51168408804475</v>
       </c>
       <c r="G22">
-        <v>121.8999081346506</v>
+        <v>38.1219737429748</v>
       </c>
       <c r="H22">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I22">
-        <v>1507.395576213325</v>
+        <v>471.4104830432279</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1743.777666841419</v>
+        <v>545.3346720777243</v>
       </c>
       <c r="C23">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D23">
-        <v>190.4871109640564</v>
+        <v>59.571370919538</v>
       </c>
       <c r="E23">
-        <v>113.9856592221271</v>
+        <v>35.64693669122144</v>
       </c>
       <c r="F23">
-        <v>313.6509206706141</v>
+        <v>98.0886068351859</v>
       </c>
       <c r="G23">
-        <v>162.5332108462009</v>
+        <v>50.82929832396641</v>
       </c>
       <c r="H23">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I23">
-        <v>2546.627218929062</v>
+        <v>796.4112316304731</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2931.26667465069</v>
+        <v>916.7002085125147</v>
       </c>
       <c r="C24">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D24">
-        <v>311.3731621527847</v>
+        <v>97.3762793877064</v>
       </c>
       <c r="E24">
-        <v>143.7773656097285</v>
+        <v>44.96374969006341</v>
       </c>
       <c r="F24">
-        <v>394.6486858987396</v>
+        <v>123.4191811277888</v>
       </c>
       <c r="G24">
-        <v>308.8131006077815</v>
+        <v>96.57566681553615</v>
       </c>
       <c r="H24">
-        <v>43.95011951059259</v>
+        <v>13.74459856140905</v>
       </c>
       <c r="I24">
-        <v>4134.046699059664</v>
+        <v>1292.847731597151</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>3371.026038523985</v>
+        <v>1054.226931701568</v>
       </c>
       <c r="C25">
-        <v>0.197809663043902</v>
+        <v>0.06186136557491621</v>
       </c>
       <c r="D25">
-        <v>285.7306664460848</v>
+        <v>89.35705637930707</v>
       </c>
       <c r="E25">
-        <v>80.3080780883168</v>
+        <v>25.11488721426965</v>
       </c>
       <c r="F25">
-        <v>327.4377743264653</v>
+        <v>102.4001939488204</v>
       </c>
       <c r="G25">
-        <v>178.7865319308209</v>
+        <v>55.91222815636303</v>
       </c>
       <c r="H25">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I25">
-        <v>4267.152347945959</v>
+        <v>1334.474096452815</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2725.953154608901</v>
+        <v>852.492148474724</v>
       </c>
       <c r="C26">
-        <v>0.2769335282614628</v>
+        <v>0.08660591180488267</v>
       </c>
       <c r="D26">
-        <v>333.3524441870989</v>
+        <v>104.2498991091916</v>
       </c>
       <c r="E26">
-        <v>68.65045384969012</v>
+        <v>21.46917777994019</v>
       </c>
       <c r="F26">
-        <v>442.9026736942188</v>
+        <v>138.5097360255097</v>
       </c>
       <c r="G26">
-        <v>441.548556132179</v>
+        <v>138.0862604467754</v>
       </c>
       <c r="H26">
-        <v>25.35583817918803</v>
+        <v>7.929576093120609</v>
       </c>
       <c r="I26">
-        <v>4038.040054179537</v>
+        <v>1262.823403841066</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2344.458438315035</v>
+        <v>733.1866315126133</v>
       </c>
       <c r="C27">
-        <v>0.5439765733707305</v>
+        <v>0.1701187553310196</v>
       </c>
       <c r="D27">
-        <v>300.3835211356276</v>
+        <v>93.93946952696385</v>
       </c>
       <c r="E27">
-        <v>53.10695486485466</v>
+        <v>16.6082318675009</v>
       </c>
       <c r="F27">
-        <v>518.7303688014001</v>
+        <v>162.2234651504997</v>
       </c>
       <c r="G27">
-        <v>398.206366573192</v>
+        <v>124.5317808937177</v>
       </c>
       <c r="H27">
-        <v>37.18856266280912</v>
+        <v>11.63004493657689</v>
       </c>
       <c r="I27">
-        <v>3652.618188926289</v>
+        <v>1142.289742643203</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2469.311254556662</v>
+        <v>772.2320734274856</v>
       </c>
       <c r="C28">
-        <v>0.5044146407619501</v>
+        <v>0.1577464822160363</v>
       </c>
       <c r="D28">
-        <v>285.7306664460848</v>
+        <v>89.35705637930707</v>
       </c>
       <c r="E28">
-        <v>75.12691176003825</v>
+        <v>23.49457191012322</v>
       </c>
       <c r="F28">
-        <v>427.3924633313862</v>
+        <v>133.6592005226709</v>
       </c>
       <c r="G28">
-        <v>463.2196509116725</v>
+        <v>144.8635002233042</v>
       </c>
       <c r="H28">
-        <v>38.87895187475498</v>
+        <v>12.15868334278493</v>
       </c>
       <c r="I28">
-        <v>3760.164313521361</v>
+        <v>1175.922832287892</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2460.987733473888</v>
+        <v>769.629043966494</v>
       </c>
       <c r="C29">
-        <v>0.4648527081531697</v>
+        <v>0.1453742091010531</v>
       </c>
       <c r="D29">
-        <v>241.7721023774563</v>
+        <v>75.60981693633674</v>
       </c>
       <c r="E29">
-        <v>50.5163717007154</v>
+        <v>15.79807421542768</v>
       </c>
       <c r="F29">
-        <v>391.2019724847769</v>
+        <v>122.3412843493801</v>
       </c>
       <c r="G29">
-        <v>346.7375164718952</v>
+        <v>108.4358364244616</v>
       </c>
       <c r="H29">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I29">
-        <v>3515.345998184127</v>
+        <v>1099.360367788114</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2603.874845394863</v>
+        <v>814.3143830468484</v>
       </c>
       <c r="C30">
-        <v>0.48463367445756</v>
+        <v>0.1515603456585448</v>
       </c>
       <c r="D30">
-        <v>234.4456750326847</v>
+        <v>73.31861036250831</v>
       </c>
       <c r="E30">
-        <v>59.58341277520279</v>
+        <v>18.63362599768393</v>
       </c>
       <c r="F30">
-        <v>487.7099480757353</v>
+        <v>152.5223941448219</v>
       </c>
       <c r="G30">
-        <v>287.1420058282881</v>
+        <v>89.79842703900727</v>
       </c>
       <c r="H30">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I30">
-        <v>3708.738694232095</v>
+        <v>1159.840407466897</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2510.928859970539</v>
+        <v>785.2472207324432</v>
       </c>
       <c r="C31">
-        <v>0.3857288429356089</v>
+        <v>0.1206296628710866</v>
       </c>
       <c r="D31">
-        <v>333.3524441870989</v>
+        <v>104.2498991091916</v>
       </c>
       <c r="E31">
-        <v>54.40224644692428</v>
+        <v>17.01331069353751</v>
       </c>
       <c r="F31">
-        <v>461.859597471014</v>
+        <v>144.4381683067572</v>
       </c>
       <c r="G31">
-        <v>273.5975715911047</v>
+        <v>85.56265217867679</v>
       </c>
       <c r="H31">
-        <v>40.56934108670086</v>
+        <v>12.68732174899298</v>
       </c>
       <c r="I31">
-        <v>3675.095789596317</v>
+        <v>1149.31920243247</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2659.3649859467</v>
+        <v>831.6679127867922</v>
       </c>
       <c r="C32">
-        <v>0.4450717418487795</v>
+        <v>0.1391880725435615</v>
       </c>
       <c r="D32">
-        <v>329.6892305147131</v>
+        <v>103.1042958222774</v>
       </c>
       <c r="E32">
-        <v>56.99282961106354</v>
+        <v>17.82346834561072</v>
       </c>
       <c r="F32">
-        <v>449.7961005221444</v>
+        <v>140.6655295823269</v>
       </c>
       <c r="G32">
-        <v>270.8886847436681</v>
+        <v>84.71549720661064</v>
       </c>
       <c r="H32">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I32">
-        <v>3790.84235204738</v>
+        <v>1185.516829503074</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>3090.800828737215</v>
+        <v>966.5916065148525</v>
       </c>
       <c r="C33">
-        <v>0.4055098092399991</v>
+        <v>0.1268157994285782</v>
       </c>
       <c r="D33">
-        <v>413.9431449795842</v>
+        <v>129.4531714213038</v>
       </c>
       <c r="E33">
-        <v>54.40224644692428</v>
+        <v>17.01331069353751</v>
       </c>
       <c r="F33">
-        <v>448.0727438151629</v>
+        <v>140.1265811931226</v>
       </c>
       <c r="G33">
-        <v>211.293174100061</v>
+        <v>66.07808782115629</v>
       </c>
       <c r="H33">
-        <v>30.42700581502564</v>
+        <v>9.51549131174473</v>
       </c>
       <c r="I33">
-        <v>4249.344653703214</v>
+        <v>1328.905064755146</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3500.040615307001</v>
+        <v>1094.573888346936</v>
       </c>
       <c r="C34">
-        <v>0.3857288429356089</v>
+        <v>0.1206296628710866</v>
       </c>
       <c r="D34">
-        <v>285.7306664460848</v>
+        <v>89.35705637930707</v>
       </c>
       <c r="E34">
-        <v>91.96570232694343</v>
+        <v>28.76059664859912</v>
       </c>
       <c r="F34">
-        <v>303.3107804287258</v>
+        <v>94.85491649995996</v>
       </c>
       <c r="G34">
-        <v>116.4821344397773</v>
+        <v>36.42766379884257</v>
       </c>
       <c r="H34">
-        <v>49.02128714643021</v>
+        <v>15.33051378003318</v>
       </c>
       <c r="I34">
-        <v>4346.936914937897</v>
+        <v>1359.425265116549</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3527.785685582917</v>
+        <v>1103.250653216908</v>
       </c>
       <c r="C35">
-        <v>0.3758383597834139</v>
+        <v>0.1175365945923408</v>
       </c>
       <c r="D35">
-        <v>252.7617433946133</v>
+        <v>79.04662679707933</v>
       </c>
       <c r="E35">
-        <v>91.96570232694343</v>
+        <v>28.76059664859912</v>
       </c>
       <c r="F35">
-        <v>246.4400090983396</v>
+        <v>77.06961965621744</v>
       </c>
       <c r="G35">
-        <v>24.37998162693012</v>
+        <v>7.624394748594959</v>
       </c>
       <c r="H35">
-        <v>20.28467054335043</v>
+        <v>6.343660874496489</v>
       </c>
       <c r="I35">
-        <v>4163.993630932878</v>
+        <v>1302.213088536488</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2651.041464863923</v>
+        <v>829.0648833258006</v>
       </c>
       <c r="C36">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D36">
-        <v>179.4974699468993</v>
+        <v>56.13456105879546</v>
       </c>
       <c r="E36">
-        <v>84.19395283452567</v>
+        <v>26.33012369237948</v>
       </c>
       <c r="F36">
-        <v>167.1656005771954</v>
+        <v>52.27799375281885</v>
       </c>
       <c r="G36">
-        <v>48.75996325386025</v>
+        <v>15.24878949718992</v>
       </c>
       <c r="H36">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I36">
-        <v>3135.907647808981</v>
+        <v>980.6979417746259</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2169.664495576755</v>
+        <v>678.5230128317905</v>
       </c>
       <c r="C37">
-        <v>0.2670430451092678</v>
+        <v>0.08351284352613687</v>
       </c>
       <c r="D37">
-        <v>120.8860511887281</v>
+        <v>37.80490846816837</v>
       </c>
       <c r="E37">
-        <v>94.55628549108272</v>
+        <v>29.57075430067233</v>
       </c>
       <c r="F37">
-        <v>101.6780457119023</v>
+        <v>31.79795496305475</v>
       </c>
       <c r="G37">
-        <v>46.05107640642358</v>
+        <v>14.40163452512381</v>
       </c>
       <c r="H37">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I37">
-        <v>2538.174165055839</v>
+        <v>793.76769315096</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1587.018019782484</v>
+        <v>496.3109505623838</v>
       </c>
       <c r="C38">
-        <v>0.1483572472829265</v>
+        <v>0.04639602418118716</v>
       </c>
       <c r="D38">
-        <v>102.5699828267996</v>
+        <v>32.0768920335974</v>
       </c>
       <c r="E38">
-        <v>71.2410370138294</v>
+        <v>22.27933543201339</v>
       </c>
       <c r="F38">
-        <v>91.33790547001399</v>
+        <v>28.56426462782885</v>
       </c>
       <c r="G38">
-        <v>24.37998162693012</v>
+        <v>7.624394748594959</v>
       </c>
       <c r="H38">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I38">
-        <v>1880.076062391232</v>
+        <v>587.9595102410156</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1115.351825091886</v>
+        <v>348.805947772864</v>
       </c>
       <c r="C39">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D39">
-        <v>51.2849914133998</v>
+        <v>16.0384460167987</v>
       </c>
       <c r="E39">
-        <v>36.26816429794953</v>
+        <v>11.34220712902501</v>
       </c>
       <c r="F39">
-        <v>49.97734450246048</v>
+        <v>15.62950328692522</v>
       </c>
       <c r="G39">
-        <v>51.46885010129693</v>
+        <v>16.09594446925603</v>
       </c>
       <c r="H39">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I39">
-        <v>1307.909982527625</v>
+        <v>409.0250007163025</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>664.4944331082258</v>
+        <v>207.8085186358233</v>
       </c>
       <c r="C40">
-        <v>0.2077001461960971</v>
+        <v>0.06495443385366202</v>
       </c>
       <c r="D40">
-        <v>43.95856406862841</v>
+        <v>13.74723944297032</v>
       </c>
       <c r="E40">
-        <v>15.54349898483551</v>
+        <v>4.860945912439289</v>
       </c>
       <c r="F40">
-        <v>44.8072743815163</v>
+        <v>14.01265811931227</v>
       </c>
       <c r="G40">
-        <v>32.50664216924017</v>
+        <v>10.16585966479328</v>
       </c>
       <c r="H40">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I40">
-        <v>804.8988912825341</v>
+        <v>251.7174530216083</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>489.700490369945</v>
+        <v>153.1448999550013</v>
       </c>
       <c r="C41">
-        <v>0.3263859440224383</v>
+        <v>0.1020712531986117</v>
       </c>
       <c r="D41">
-        <v>3.663213672385699</v>
+        <v>1.145603286914192</v>
       </c>
       <c r="E41">
-        <v>7.771749492417753</v>
+        <v>2.430472956219644</v>
       </c>
       <c r="F41">
-        <v>70.65762498623721</v>
+        <v>22.09688395737703</v>
       </c>
       <c r="G41">
-        <v>43.3421895589869</v>
+        <v>13.5544795530577</v>
       </c>
       <c r="I41">
-        <v>615.461654023995</v>
+        <v>192.4744109617685</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>285.774223841951</v>
+        <v>89.37067816070903</v>
       </c>
       <c r="C42">
-        <v>0.2373715956526824</v>
+        <v>0.07423363868989943</v>
       </c>
       <c r="D42">
-        <v>3.663213672385699</v>
+        <v>1.145603286914192</v>
       </c>
       <c r="E42">
-        <v>5.181166328278501</v>
+        <v>1.620315304146429</v>
       </c>
       <c r="F42">
-        <v>55.14741462340466</v>
+        <v>17.24634845453817</v>
       </c>
       <c r="G42">
-        <v>40.63330271155023</v>
+        <v>12.7073245809916</v>
       </c>
       <c r="H42">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I42">
-        <v>392.3270819851687</v>
+        <v>122.6931418321974</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>219.1860551797488</v>
+        <v>68.54644247277682</v>
       </c>
       <c r="C43">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D43">
-        <v>29.30570937908559</v>
+        <v>9.164826295313539</v>
       </c>
       <c r="E43">
-        <v>1.295291582069625</v>
+        <v>0.4050788260366072</v>
       </c>
       <c r="F43">
-        <v>36.19049084660933</v>
+        <v>11.31791617329067</v>
       </c>
       <c r="G43">
-        <v>54.17773694873362</v>
+        <v>16.94309944132213</v>
       </c>
       <c r="I43">
-        <v>340.4915603634216</v>
+        <v>106.4825275302171</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>271.9016887039921</v>
+        <v>85.03229572572306</v>
       </c>
       <c r="C44">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D44">
-        <v>21.97928203431421</v>
+        <v>6.87361972148516</v>
       </c>
       <c r="E44">
-        <v>11.65762423862663</v>
+        <v>3.645709434329465</v>
       </c>
       <c r="F44">
-        <v>44.8072743815163</v>
+        <v>14.01265811931227</v>
       </c>
       <c r="G44">
-        <v>46.05107640642358</v>
+        <v>14.40163452512381</v>
       </c>
       <c r="H44">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I44">
-        <v>398.2653636735582</v>
+        <v>124.5502311611992</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>400.916265487009</v>
+        <v>125.3792523710917</v>
       </c>
       <c r="C45">
-        <v>0.04945241576097551</v>
+        <v>0.01546534139372905</v>
       </c>
       <c r="D45">
-        <v>47.6217777410141</v>
+        <v>14.8928427298845</v>
       </c>
       <c r="E45">
-        <v>6.47645791034813</v>
+        <v>2.025394130183036</v>
       </c>
       <c r="F45">
-        <v>82.72112193510698</v>
+        <v>25.86952268180727</v>
       </c>
       <c r="G45">
-        <v>78.55771857566376</v>
+        <v>24.5674941899171</v>
       </c>
       <c r="H45">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I45">
-        <v>618.0331832768489</v>
+        <v>193.2786098504854</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1062.636191567643</v>
+        <v>332.320094519918</v>
       </c>
       <c r="C46">
-        <v>0.09890483152195102</v>
+        <v>0.0309306827874581</v>
       </c>
       <c r="D46">
-        <v>95.2435554820282</v>
+        <v>29.785685459769</v>
       </c>
       <c r="E46">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F46">
-        <v>177.5057408190838</v>
+        <v>55.51168408804475</v>
       </c>
       <c r="G46">
-        <v>121.8999081346506</v>
+        <v>38.1219737429748</v>
       </c>
       <c r="H46">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I46">
-        <v>1507.395576213325</v>
+        <v>471.4104830432279</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1743.777666841419</v>
+        <v>545.3346720777243</v>
       </c>
       <c r="C47">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D47">
-        <v>190.4871109640564</v>
+        <v>59.571370919538</v>
       </c>
       <c r="E47">
-        <v>113.9856592221271</v>
+        <v>35.64693669122144</v>
       </c>
       <c r="F47">
-        <v>313.6509206706141</v>
+        <v>98.0886068351859</v>
       </c>
       <c r="G47">
-        <v>162.5332108462009</v>
+        <v>50.82929832396641</v>
       </c>
       <c r="H47">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I47">
-        <v>2546.627218929062</v>
+        <v>796.4112316304731</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2931.26667465069</v>
+        <v>916.7002085125147</v>
       </c>
       <c r="C48">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D48">
-        <v>311.3731621527847</v>
+        <v>97.3762793877064</v>
       </c>
       <c r="E48">
-        <v>143.7773656097285</v>
+        <v>44.96374969006341</v>
       </c>
       <c r="F48">
-        <v>394.6486858987396</v>
+        <v>123.4191811277888</v>
       </c>
       <c r="G48">
-        <v>308.8131006077815</v>
+        <v>96.57566681553615</v>
       </c>
       <c r="H48">
-        <v>43.95011951059259</v>
+        <v>13.74459856140905</v>
       </c>
       <c r="I48">
-        <v>4134.046699059664</v>
+        <v>1292.847731597151</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>3371.026038523985</v>
+        <v>1054.226931701568</v>
       </c>
       <c r="C49">
-        <v>0.197809663043902</v>
+        <v>0.06186136557491621</v>
       </c>
       <c r="D49">
-        <v>285.7306664460848</v>
+        <v>89.35705637930707</v>
       </c>
       <c r="E49">
-        <v>80.3080780883168</v>
+        <v>25.11488721426965</v>
       </c>
       <c r="F49">
-        <v>327.4377743264653</v>
+        <v>102.4001939488204</v>
       </c>
       <c r="G49">
-        <v>178.7865319308209</v>
+        <v>55.91222815636303</v>
       </c>
       <c r="H49">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I49">
-        <v>4267.152347945959</v>
+        <v>1334.474096452815</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>852.492148474724</v>
+        <v>640.0318383580125</v>
       </c>
       <c r="C2">
-        <v>0.08660591180488267</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D2">
-        <v>104.2498991091916</v>
+        <v>331.3925016434736</v>
       </c>
       <c r="E2">
-        <v>21.46917777994019</v>
+        <v>68.65045384969012</v>
       </c>
       <c r="F2">
-        <v>138.5097360255097</v>
+        <v>438.8600404521522</v>
       </c>
       <c r="G2">
-        <v>138.0862604467754</v>
+        <v>438.5821753786425</v>
       </c>
       <c r="H2">
-        <v>7.929576093120609</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I2">
-        <v>1262.823403841066</v>
+        <v>1943.14978138942</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>742.2972346260831</v>
+        <v>557.2999874964679</v>
       </c>
       <c r="C3">
-        <v>0.1979563698397318</v>
+        <v>0.6329909217404864</v>
       </c>
       <c r="D3">
-        <v>51.5521479111387</v>
+        <v>163.8754129006188</v>
       </c>
       <c r="E3">
-        <v>15.39299538939108</v>
+        <v>49.22108011864578</v>
       </c>
       <c r="F3">
-        <v>165.4571554857256</v>
+        <v>524.241371279419</v>
       </c>
       <c r="G3">
-        <v>110.97730134066</v>
+        <v>352.4801532184182</v>
       </c>
       <c r="H3">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I3">
-        <v>1092.747090403543</v>
+        <v>1669.726055690606</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>792.6224708719189</v>
+        <v>595.0830374962288</v>
       </c>
       <c r="C4">
-        <v>0.1917702332822402</v>
+        <v>0.6132099554360964</v>
       </c>
       <c r="D4">
-        <v>90.50265966622128</v>
+        <v>287.6923915366418</v>
       </c>
       <c r="E4">
-        <v>16.6082318675009</v>
+        <v>53.10695486485466</v>
       </c>
       <c r="F4">
-        <v>137.4318392471011</v>
+        <v>435.4447872190614</v>
       </c>
       <c r="G4">
-        <v>119.448851061321</v>
+        <v>379.3870351434882</v>
       </c>
       <c r="H4">
-        <v>8.458214499328649</v>
+        <v>27.04622739113391</v>
       </c>
       <c r="I4">
-        <v>1165.264037446674</v>
+        <v>1778.373643606845</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>731.0174402951197</v>
+        <v>548.8313728413495</v>
       </c>
       <c r="C5">
-        <v>0.1330019359860698</v>
+        <v>0.4252907755443893</v>
       </c>
       <c r="D5">
-        <v>71.02740378867996</v>
+        <v>225.7839022186302</v>
       </c>
       <c r="E5">
-        <v>17.01331069353751</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F5">
-        <v>115.8739036789283</v>
+        <v>367.1397225572479</v>
       </c>
       <c r="G5">
-        <v>113.5187662568583</v>
+        <v>360.552217795939</v>
       </c>
       <c r="H5">
-        <v>9.51549131174473</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I5">
-        <v>1058.099317960854</v>
+        <v>1587.561758450661</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>755.7462201745393</v>
+        <v>567.397181892956</v>
       </c>
       <c r="C6">
-        <v>0.1515603456585448</v>
+        <v>0.48463367445756</v>
       </c>
       <c r="D6">
-        <v>108.8323122568484</v>
+        <v>345.9592050124177</v>
       </c>
       <c r="E6">
-        <v>17.01331069353751</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F6">
-        <v>140.6655295823269</v>
+        <v>445.6905469183336</v>
       </c>
       <c r="G6">
-        <v>99.96428670380055</v>
+        <v>317.5012067158268</v>
       </c>
       <c r="H6">
-        <v>8.986852905536688</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I6">
-        <v>1131.360072662248</v>
+        <v>1760.171637263996</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>778.7396470799646</v>
+        <v>584.6601271514673</v>
       </c>
       <c r="C7">
-        <v>0.1422811408223073</v>
+        <v>0.4549622250009747</v>
       </c>
       <c r="D7">
-        <v>107.6867089699341</v>
+        <v>342.3175291701814</v>
       </c>
       <c r="E7">
-        <v>14.17775891128125</v>
+        <v>45.3352053724369</v>
       </c>
       <c r="F7">
-        <v>145.5160650851658</v>
+        <v>461.0591864672415</v>
       </c>
       <c r="G7">
-        <v>116.0602311730566</v>
+        <v>368.6242823734602</v>
       </c>
       <c r="H7">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I7">
-        <v>1173.424098890594</v>
+        <v>1837.949466210652</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>826.0280156213106</v>
+        <v>620.1631655133109</v>
       </c>
       <c r="C8">
-        <v>0.1484672773797989</v>
+        <v>0.4747431913053647</v>
       </c>
       <c r="D8">
-        <v>109.9779155437626</v>
+        <v>349.6008808546532</v>
       </c>
       <c r="E8">
-        <v>12.15236478109822</v>
+        <v>38.85874746208877</v>
       </c>
       <c r="F8">
-        <v>147.1329102527788</v>
+        <v>466.1820663168775</v>
       </c>
       <c r="G8">
-        <v>66.07808782115629</v>
+        <v>209.8736790155467</v>
       </c>
       <c r="H8">
-        <v>12.15868334278493</v>
+        <v>38.87895187475498</v>
       </c>
       <c r="I8">
-        <v>1173.676444640271</v>
+        <v>1724.032234228537</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>966.5916065148525</v>
+        <v>725.6951327540211</v>
       </c>
       <c r="C9">
-        <v>0.1268157994285782</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D9">
-        <v>129.4531714213038</v>
+        <v>411.5093701726651</v>
       </c>
       <c r="E9">
-        <v>17.01331069353751</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F9">
-        <v>140.1265811931226</v>
+        <v>443.9829203017882</v>
       </c>
       <c r="G9">
-        <v>66.07808782115629</v>
+        <v>209.8736790155467</v>
       </c>
       <c r="H9">
-        <v>9.51549131174473</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I9">
-        <v>1328.905064755146</v>
+        <v>1876.295864315211</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1094.573888346936</v>
+        <v>821.7813374947918</v>
       </c>
       <c r="C10">
-        <v>0.1206296628710866</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D10">
-        <v>89.35705637930707</v>
+        <v>284.0507156944059</v>
       </c>
       <c r="E10">
-        <v>28.76059664859912</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F10">
-        <v>94.85491649995996</v>
+        <v>300.5422845119798</v>
       </c>
       <c r="G10">
-        <v>36.42766379884257</v>
+        <v>115.6995922778014</v>
       </c>
       <c r="H10">
-        <v>15.33051378003318</v>
+        <v>49.02128714643021</v>
       </c>
       <c r="I10">
-        <v>1359.425265116549</v>
+        <v>1663.446648295288</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1103.250653216908</v>
+        <v>828.2956564602677</v>
       </c>
       <c r="C11">
-        <v>0.1175365945923408</v>
+        <v>0.3758383597834139</v>
       </c>
       <c r="D11">
-        <v>79.04662679707933</v>
+        <v>251.2756331142822</v>
       </c>
       <c r="E11">
-        <v>28.76059664859912</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F11">
-        <v>77.06961965621744</v>
+        <v>244.1906061659835</v>
       </c>
       <c r="G11">
-        <v>7.624394748594959</v>
+        <v>24.21619373256309</v>
       </c>
       <c r="H11">
-        <v>6.343660874496489</v>
+        <v>20.28467054335043</v>
       </c>
       <c r="I11">
-        <v>1302.213088536488</v>
+        <v>1460.604300703174</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>829.0648833258006</v>
+        <v>622.4431771512271</v>
       </c>
       <c r="C12">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D12">
-        <v>56.13456105879546</v>
+        <v>178.4421162695627</v>
       </c>
       <c r="E12">
-        <v>26.33012369237948</v>
+        <v>84.19395283452567</v>
       </c>
       <c r="F12">
-        <v>52.27799375281885</v>
+        <v>165.6397818048979</v>
       </c>
       <c r="G12">
-        <v>15.24878949718992</v>
+        <v>48.43238746512618</v>
       </c>
       <c r="H12">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I12">
-        <v>980.6979417746259</v>
+        <v>1104.400611857917</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>678.5230128317905</v>
+        <v>509.4197431002196</v>
       </c>
       <c r="C13">
-        <v>0.08351284352613687</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D13">
-        <v>37.80490846816837</v>
+        <v>120.1753027937871</v>
       </c>
       <c r="E13">
-        <v>29.57075430067233</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F13">
-        <v>31.79795496305475</v>
+        <v>100.749970376175</v>
       </c>
       <c r="G13">
-        <v>14.40163452512381</v>
+        <v>45.74169927261915</v>
       </c>
       <c r="H13">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I13">
-        <v>793.76769315096</v>
+        <v>875.9812117148304</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>496.3109505623838</v>
+        <v>372.6190448252248</v>
       </c>
       <c r="C14">
-        <v>0.04639602418118716</v>
+        <v>0.1483572472829265</v>
       </c>
       <c r="D14">
-        <v>32.0768920335974</v>
+        <v>101.9669235826072</v>
       </c>
       <c r="E14">
-        <v>22.27933543201339</v>
+        <v>71.2410370138294</v>
       </c>
       <c r="F14">
-        <v>28.56426462782885</v>
+        <v>90.50421067690297</v>
       </c>
       <c r="G14">
-        <v>7.624394748594959</v>
+        <v>24.21619373256309</v>
       </c>
       <c r="H14">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I14">
-        <v>587.9595102410156</v>
+        <v>664.076545502302</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>348.805947772864</v>
+        <v>261.8756224121334</v>
       </c>
       <c r="C15">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D15">
-        <v>16.0384460167987</v>
+        <v>50.98346179130359</v>
       </c>
       <c r="E15">
-        <v>11.34220712902501</v>
+        <v>36.26816429794953</v>
       </c>
       <c r="F15">
-        <v>15.62950328692522</v>
+        <v>49.52117187981483</v>
       </c>
       <c r="G15">
-        <v>16.09594446925603</v>
+        <v>51.12307565763316</v>
       </c>
       <c r="H15">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I15">
-        <v>409.0250007163025</v>
+        <v>453.3303031594656</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>207.8085186358233</v>
+        <v>156.0179392231492</v>
       </c>
       <c r="C16">
-        <v>0.06495443385366202</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D16">
-        <v>13.74723944297032</v>
+        <v>43.70011010683165</v>
       </c>
       <c r="E16">
-        <v>4.860945912439289</v>
+        <v>15.54349898483551</v>
       </c>
       <c r="F16">
-        <v>14.01265811931227</v>
+        <v>44.39829203017882</v>
       </c>
       <c r="G16">
-        <v>10.16585966479328</v>
+        <v>32.28825831008411</v>
       </c>
       <c r="H16">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I16">
-        <v>251.7174530216083</v>
+        <v>295.5365772251672</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>153.1448999550013</v>
+        <v>114.9777297406506</v>
       </c>
       <c r="C17">
-        <v>0.1020712531986117</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D17">
-        <v>1.145603286914192</v>
+        <v>3.641675842235972</v>
       </c>
       <c r="E17">
-        <v>2.430472956219644</v>
+        <v>7.771749492417753</v>
       </c>
       <c r="F17">
-        <v>22.09688395737703</v>
+        <v>70.01269127835889</v>
       </c>
       <c r="G17">
-        <v>13.5544795530577</v>
+        <v>43.05101108011214</v>
       </c>
       <c r="I17">
-        <v>192.4744109617685</v>
+        <v>239.7812433777978</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>89.37067816070903</v>
+        <v>67.09748534440234</v>
       </c>
       <c r="C18">
-        <v>0.07423363868989943</v>
+        <v>0.2373715956526824</v>
       </c>
       <c r="D18">
-        <v>1.145603286914192</v>
+        <v>3.641675842235972</v>
       </c>
       <c r="E18">
-        <v>1.620315304146429</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F18">
-        <v>17.24634845453817</v>
+        <v>54.64405172945084</v>
       </c>
       <c r="G18">
-        <v>12.7073245809916</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H18">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I18">
-        <v>122.6931418321974</v>
+        <v>172.8524629395714</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>68.54644247277682</v>
+        <v>51.46311982726004</v>
       </c>
       <c r="C19">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D19">
-        <v>9.164826295313539</v>
+        <v>29.13340673788778</v>
       </c>
       <c r="E19">
-        <v>0.4050788260366072</v>
+        <v>1.295291582069625</v>
       </c>
       <c r="F19">
-        <v>11.31791617329067</v>
+        <v>35.86015894745212</v>
       </c>
       <c r="G19">
-        <v>16.94309944132213</v>
+        <v>53.81376385014018</v>
       </c>
       <c r="I19">
-        <v>106.4825275302171</v>
+        <v>171.9020173719844</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>85.03229572572306</v>
+        <v>63.84032586166433</v>
       </c>
       <c r="C20">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D20">
-        <v>6.87361972148516</v>
+        <v>21.85005505341583</v>
       </c>
       <c r="E20">
-        <v>3.645709434329465</v>
+        <v>11.65762423862663</v>
       </c>
       <c r="F20">
-        <v>14.01265811931227</v>
+        <v>44.39829203017882</v>
       </c>
       <c r="G20">
-        <v>14.40163452512381</v>
+        <v>45.74169927261915</v>
       </c>
       <c r="H20">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I20">
-        <v>124.5502311611992</v>
+        <v>189.3564143651901</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>125.3792523710917</v>
+        <v>94.13190905112755</v>
       </c>
       <c r="C21">
-        <v>0.01546534139372905</v>
+        <v>0.04945241576097551</v>
       </c>
       <c r="D21">
-        <v>14.8928427298845</v>
+        <v>47.34178594906763</v>
       </c>
       <c r="E21">
-        <v>2.025394130183036</v>
+        <v>6.47645791034813</v>
       </c>
       <c r="F21">
-        <v>25.86952268180727</v>
+        <v>81.96607759417623</v>
       </c>
       <c r="G21">
-        <v>24.5674941899171</v>
+        <v>78.02995758270329</v>
       </c>
       <c r="H21">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I21">
-        <v>193.2786098504854</v>
+        <v>309.6860297151296</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>332.320094519918</v>
+        <v>249.4984163777291</v>
       </c>
       <c r="C22">
-        <v>0.0309306827874581</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D22">
-        <v>29.785685459769</v>
+        <v>94.68357189813526</v>
       </c>
       <c r="E22">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F22">
-        <v>55.51168408804475</v>
+        <v>175.8855415041699</v>
       </c>
       <c r="G22">
-        <v>38.1219737429748</v>
+        <v>121.0809686628154</v>
       </c>
       <c r="H22">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I22">
-        <v>471.4104830432279</v>
+        <v>691.2586786527698</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>545.3346720777243</v>
+        <v>409.4249469801638</v>
       </c>
       <c r="C23">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D23">
-        <v>59.571370919538</v>
+        <v>189.3671437962705</v>
       </c>
       <c r="E23">
-        <v>35.64693669122144</v>
+        <v>113.9856592221271</v>
       </c>
       <c r="F23">
-        <v>98.0886068351859</v>
+        <v>310.7880442112518</v>
       </c>
       <c r="G23">
-        <v>50.82929832396641</v>
+        <v>161.4412915504206</v>
       </c>
       <c r="H23">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I23">
-        <v>796.4112316304731</v>
+        <v>1207.199736144878</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>916.7002085125147</v>
+        <v>688.2377987025342</v>
       </c>
       <c r="C24">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D24">
-        <v>97.3762793877064</v>
+        <v>309.5424465900578</v>
       </c>
       <c r="E24">
-        <v>44.96374969006341</v>
+        <v>143.7773656097285</v>
       </c>
       <c r="F24">
-        <v>123.4191811277888</v>
+        <v>391.0464951888827</v>
       </c>
       <c r="G24">
-        <v>96.57566681553615</v>
+        <v>306.738453945799</v>
       </c>
       <c r="H24">
-        <v>13.74459856140905</v>
+        <v>43.95011951059259</v>
       </c>
       <c r="I24">
-        <v>1292.847731597151</v>
+        <v>1883.510270176943</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1054.226931701568</v>
+        <v>791.4897543053289</v>
       </c>
       <c r="C25">
-        <v>0.06186136557491621</v>
+        <v>0.197809663043902</v>
       </c>
       <c r="D25">
-        <v>89.35705637930707</v>
+        <v>284.0507156944059</v>
       </c>
       <c r="E25">
-        <v>25.11488721426965</v>
+        <v>80.3080780883168</v>
       </c>
       <c r="F25">
-        <v>102.4001939488204</v>
+        <v>324.4490571436145</v>
       </c>
       <c r="G25">
-        <v>55.91222815636303</v>
+        <v>177.5854207054625</v>
       </c>
       <c r="H25">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I25">
-        <v>1334.474096452815</v>
+        <v>1681.746284567415</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>852.492148474724</v>
+        <v>640.0318383580125</v>
       </c>
       <c r="C26">
-        <v>0.08660591180488267</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D26">
-        <v>104.2498991091916</v>
+        <v>331.3925016434736</v>
       </c>
       <c r="E26">
-        <v>21.46917777994019</v>
+        <v>68.65045384969012</v>
       </c>
       <c r="F26">
-        <v>138.5097360255097</v>
+        <v>438.8600404521522</v>
       </c>
       <c r="G26">
-        <v>138.0862604467754</v>
+        <v>438.5821753786425</v>
       </c>
       <c r="H26">
-        <v>7.929576093120609</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I26">
-        <v>1262.823403841066</v>
+        <v>1943.14978138942</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>733.1866315126133</v>
+        <v>550.4599525827178</v>
       </c>
       <c r="C27">
-        <v>0.1701187553310196</v>
+        <v>0.5439765733707305</v>
       </c>
       <c r="D27">
-        <v>93.93946952696385</v>
+        <v>298.6174190633498</v>
       </c>
       <c r="E27">
-        <v>16.6082318675009</v>
+        <v>53.10695486485466</v>
       </c>
       <c r="F27">
-        <v>162.2234651504997</v>
+        <v>513.9956115801467</v>
       </c>
       <c r="G27">
-        <v>124.5317808937177</v>
+        <v>395.5311642985303</v>
       </c>
       <c r="H27">
-        <v>11.63004493657689</v>
+        <v>37.18856266280912</v>
       </c>
       <c r="I27">
-        <v>1142.289742643203</v>
+        <v>1849.443641625779</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>772.2320734274856</v>
+        <v>579.7743879273598</v>
       </c>
       <c r="C28">
-        <v>0.1577464822160363</v>
+        <v>0.5044146407619501</v>
       </c>
       <c r="D28">
-        <v>89.35705637930707</v>
+        <v>284.0507156944059</v>
       </c>
       <c r="E28">
-        <v>23.49457191012322</v>
+        <v>75.12691176003825</v>
       </c>
       <c r="F28">
-        <v>133.6592005226709</v>
+        <v>423.4914009032441</v>
       </c>
       <c r="G28">
-        <v>144.8635002233042</v>
+        <v>460.1076809186985</v>
       </c>
       <c r="H28">
-        <v>12.15868334278493</v>
+        <v>38.87895187475498</v>
       </c>
       <c r="I28">
-        <v>1175.922832287892</v>
+        <v>1861.934463719263</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>769.629043966494</v>
+        <v>577.8200922377174</v>
       </c>
       <c r="C29">
-        <v>0.1453742091010531</v>
+        <v>0.4648527081531697</v>
       </c>
       <c r="D29">
-        <v>75.60981693633674</v>
+        <v>240.3506055875742</v>
       </c>
       <c r="E29">
-        <v>15.79807421542768</v>
+        <v>50.5163717007154</v>
       </c>
       <c r="F29">
-        <v>122.3412843493801</v>
+        <v>387.631241955792</v>
       </c>
       <c r="G29">
-        <v>108.4358364244616</v>
+        <v>344.4080886408971</v>
       </c>
       <c r="H29">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I29">
-        <v>1099.360367788114</v>
+        <v>1624.856701798091</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>814.3143830468484</v>
+        <v>611.3688349099183</v>
       </c>
       <c r="C30">
-        <v>0.1515603456585448</v>
+        <v>0.48463367445756</v>
       </c>
       <c r="D30">
-        <v>73.31861036250831</v>
+        <v>233.0672539031022</v>
       </c>
       <c r="E30">
-        <v>18.63362599768393</v>
+        <v>59.58341277520279</v>
       </c>
       <c r="F30">
-        <v>152.5223941448219</v>
+        <v>483.2583324823309</v>
       </c>
       <c r="G30">
-        <v>89.79842703900727</v>
+        <v>285.2129484057428</v>
       </c>
       <c r="H30">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I30">
-        <v>1159.840407466897</v>
+        <v>1708.473589601618</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>785.2472207324432</v>
+        <v>589.5458663755737</v>
       </c>
       <c r="C31">
-        <v>0.1206296628710866</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D31">
-        <v>104.2498991091916</v>
+        <v>331.3925016434736</v>
       </c>
       <c r="E31">
-        <v>17.01331069353751</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F31">
-        <v>144.4381683067572</v>
+        <v>457.6439332341508</v>
       </c>
       <c r="G31">
-        <v>85.56265217867679</v>
+        <v>271.7595074432079</v>
       </c>
       <c r="H31">
-        <v>12.68732174899298</v>
+        <v>40.56934108670086</v>
       </c>
       <c r="I31">
-        <v>1149.31920243247</v>
+        <v>1745.699125072967</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>831.6679127867922</v>
+        <v>624.3974728408701</v>
       </c>
       <c r="C32">
-        <v>0.1391880725435615</v>
+        <v>0.4450717418487795</v>
       </c>
       <c r="D32">
-        <v>103.1042958222774</v>
+        <v>327.7508258012376</v>
       </c>
       <c r="E32">
-        <v>17.82346834561072</v>
+        <v>56.99282961106354</v>
       </c>
       <c r="F32">
-        <v>140.6655295823269</v>
+        <v>445.6905469183336</v>
       </c>
       <c r="G32">
-        <v>84.71549720661064</v>
+        <v>269.068819250701</v>
       </c>
       <c r="H32">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I32">
-        <v>1185.516829503074</v>
+        <v>1748.011015131297</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>966.5916065148525</v>
+        <v>725.6951327540211</v>
       </c>
       <c r="C33">
-        <v>0.1268157994285782</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D33">
-        <v>129.4531714213038</v>
+        <v>411.5093701726651</v>
       </c>
       <c r="E33">
-        <v>17.01331069353751</v>
+        <v>54.40224644692428</v>
       </c>
       <c r="F33">
-        <v>140.1265811931226</v>
+        <v>443.9829203017882</v>
       </c>
       <c r="G33">
-        <v>66.07808782115629</v>
+        <v>209.8736790155467</v>
       </c>
       <c r="H33">
-        <v>9.51549131174473</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I33">
-        <v>1328.905064755146</v>
+        <v>1876.295864315211</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1094.573888346936</v>
+        <v>821.7813374947918</v>
       </c>
       <c r="C34">
-        <v>0.1206296628710866</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D34">
-        <v>89.35705637930707</v>
+        <v>284.0507156944059</v>
       </c>
       <c r="E34">
-        <v>28.76059664859912</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F34">
-        <v>94.85491649995996</v>
+        <v>300.5422845119798</v>
       </c>
       <c r="G34">
-        <v>36.42766379884257</v>
+        <v>115.6995922778014</v>
       </c>
       <c r="H34">
-        <v>15.33051378003318</v>
+        <v>49.02128714643021</v>
       </c>
       <c r="I34">
-        <v>1359.425265116549</v>
+        <v>1663.446648295288</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1103.250653216908</v>
+        <v>828.2956564602677</v>
       </c>
       <c r="C35">
-        <v>0.1175365945923408</v>
+        <v>0.3758383597834139</v>
       </c>
       <c r="D35">
-        <v>79.04662679707933</v>
+        <v>251.2756331142822</v>
       </c>
       <c r="E35">
-        <v>28.76059664859912</v>
+        <v>91.96570232694343</v>
       </c>
       <c r="F35">
-        <v>77.06961965621744</v>
+        <v>244.1906061659835</v>
       </c>
       <c r="G35">
-        <v>7.624394748594959</v>
+        <v>24.21619373256309</v>
       </c>
       <c r="H35">
-        <v>6.343660874496489</v>
+        <v>20.28467054335043</v>
       </c>
       <c r="I35">
-        <v>1302.213088536488</v>
+        <v>1460.604300703174</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>829.0648833258006</v>
+        <v>622.4431771512271</v>
       </c>
       <c r="C36">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D36">
-        <v>56.13456105879546</v>
+        <v>178.4421162695627</v>
       </c>
       <c r="E36">
-        <v>26.33012369237948</v>
+        <v>84.19395283452567</v>
       </c>
       <c r="F36">
-        <v>52.27799375281885</v>
+        <v>165.6397818048979</v>
       </c>
       <c r="G36">
-        <v>15.24878949718992</v>
+        <v>48.43238746512618</v>
       </c>
       <c r="H36">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I36">
-        <v>980.6979417746259</v>
+        <v>1104.400611857917</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>678.5230128317905</v>
+        <v>509.4197431002196</v>
       </c>
       <c r="C37">
-        <v>0.08351284352613687</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D37">
-        <v>37.80490846816837</v>
+        <v>120.1753027937871</v>
       </c>
       <c r="E37">
-        <v>29.57075430067233</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F37">
-        <v>31.79795496305475</v>
+        <v>100.749970376175</v>
       </c>
       <c r="G37">
-        <v>14.40163452512381</v>
+        <v>45.74169927261915</v>
       </c>
       <c r="H37">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I37">
-        <v>793.76769315096</v>
+        <v>875.9812117148304</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>496.3109505623838</v>
+        <v>372.6190448252248</v>
       </c>
       <c r="C38">
-        <v>0.04639602418118716</v>
+        <v>0.1483572472829265</v>
       </c>
       <c r="D38">
-        <v>32.0768920335974</v>
+        <v>101.9669235826072</v>
       </c>
       <c r="E38">
-        <v>22.27933543201339</v>
+        <v>71.2410370138294</v>
       </c>
       <c r="F38">
-        <v>28.56426462782885</v>
+        <v>90.50421067690297</v>
       </c>
       <c r="G38">
-        <v>7.624394748594959</v>
+        <v>24.21619373256309</v>
       </c>
       <c r="H38">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I38">
-        <v>587.9595102410156</v>
+        <v>664.076545502302</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>348.805947772864</v>
+        <v>261.8756224121334</v>
       </c>
       <c r="C39">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D39">
-        <v>16.0384460167987</v>
+        <v>50.98346179130359</v>
       </c>
       <c r="E39">
-        <v>11.34220712902501</v>
+        <v>36.26816429794953</v>
       </c>
       <c r="F39">
-        <v>15.62950328692522</v>
+        <v>49.52117187981483</v>
       </c>
       <c r="G39">
-        <v>16.09594446925603</v>
+        <v>51.12307565763316</v>
       </c>
       <c r="H39">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I39">
-        <v>409.0250007163025</v>
+        <v>453.3303031594656</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>207.8085186358233</v>
+        <v>156.0179392231492</v>
       </c>
       <c r="C40">
-        <v>0.06495443385366202</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D40">
-        <v>13.74723944297032</v>
+        <v>43.70011010683165</v>
       </c>
       <c r="E40">
-        <v>4.860945912439289</v>
+        <v>15.54349898483551</v>
       </c>
       <c r="F40">
-        <v>14.01265811931227</v>
+        <v>44.39829203017882</v>
       </c>
       <c r="G40">
-        <v>10.16585966479328</v>
+        <v>32.28825831008411</v>
       </c>
       <c r="H40">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I40">
-        <v>251.7174530216083</v>
+        <v>295.5365772251672</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>153.1448999550013</v>
+        <v>114.9777297406506</v>
       </c>
       <c r="C41">
-        <v>0.1020712531986117</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D41">
-        <v>1.145603286914192</v>
+        <v>3.641675842235972</v>
       </c>
       <c r="E41">
-        <v>2.430472956219644</v>
+        <v>7.771749492417753</v>
       </c>
       <c r="F41">
-        <v>22.09688395737703</v>
+        <v>70.01269127835889</v>
       </c>
       <c r="G41">
-        <v>13.5544795530577</v>
+        <v>43.05101108011214</v>
       </c>
       <c r="I41">
-        <v>192.4744109617685</v>
+        <v>239.7812433777978</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>89.37067816070903</v>
+        <v>67.09748534440234</v>
       </c>
       <c r="C42">
-        <v>0.07423363868989943</v>
+        <v>0.2373715956526824</v>
       </c>
       <c r="D42">
-        <v>1.145603286914192</v>
+        <v>3.641675842235972</v>
       </c>
       <c r="E42">
-        <v>1.620315304146429</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F42">
-        <v>17.24634845453817</v>
+        <v>54.64405172945084</v>
       </c>
       <c r="G42">
-        <v>12.7073245809916</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H42">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I42">
-        <v>122.6931418321974</v>
+        <v>172.8524629395714</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>68.54644247277682</v>
+        <v>51.46311982726004</v>
       </c>
       <c r="C43">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D43">
-        <v>9.164826295313539</v>
+        <v>29.13340673788778</v>
       </c>
       <c r="E43">
-        <v>0.4050788260366072</v>
+        <v>1.295291582069625</v>
       </c>
       <c r="F43">
-        <v>11.31791617329067</v>
+        <v>35.86015894745212</v>
       </c>
       <c r="G43">
-        <v>16.94309944132213</v>
+        <v>53.81376385014018</v>
       </c>
       <c r="I43">
-        <v>106.4825275302171</v>
+        <v>171.9020173719844</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>85.03229572572306</v>
+        <v>63.84032586166433</v>
       </c>
       <c r="C44">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D44">
-        <v>6.87361972148516</v>
+        <v>21.85005505341583</v>
       </c>
       <c r="E44">
-        <v>3.645709434329465</v>
+        <v>11.65762423862663</v>
       </c>
       <c r="F44">
-        <v>14.01265811931227</v>
+        <v>44.39829203017882</v>
       </c>
       <c r="G44">
-        <v>14.40163452512381</v>
+        <v>45.74169927261915</v>
       </c>
       <c r="H44">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I44">
-        <v>124.5502311611992</v>
+        <v>189.3564143651901</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>125.3792523710917</v>
+        <v>94.13190905112755</v>
       </c>
       <c r="C45">
-        <v>0.01546534139372905</v>
+        <v>0.04945241576097551</v>
       </c>
       <c r="D45">
-        <v>14.8928427298845</v>
+        <v>47.34178594906763</v>
       </c>
       <c r="E45">
-        <v>2.025394130183036</v>
+        <v>6.47645791034813</v>
       </c>
       <c r="F45">
-        <v>25.86952268180727</v>
+        <v>81.96607759417623</v>
       </c>
       <c r="G45">
-        <v>24.5674941899171</v>
+        <v>78.02995758270329</v>
       </c>
       <c r="H45">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I45">
-        <v>193.2786098504854</v>
+        <v>309.6860297151296</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>332.320094519918</v>
+        <v>249.4984163777291</v>
       </c>
       <c r="C46">
-        <v>0.0309306827874581</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D46">
-        <v>29.785685459769</v>
+        <v>94.68357189813526</v>
       </c>
       <c r="E46">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F46">
-        <v>55.51168408804475</v>
+        <v>175.8855415041699</v>
       </c>
       <c r="G46">
-        <v>38.1219737429748</v>
+        <v>121.0809686628154</v>
       </c>
       <c r="H46">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I46">
-        <v>471.4104830432279</v>
+        <v>691.2586786527698</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>545.3346720777243</v>
+        <v>409.4249469801638</v>
       </c>
       <c r="C47">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D47">
-        <v>59.571370919538</v>
+        <v>189.3671437962705</v>
       </c>
       <c r="E47">
-        <v>35.64693669122144</v>
+        <v>113.9856592221271</v>
       </c>
       <c r="F47">
-        <v>98.0886068351859</v>
+        <v>310.7880442112518</v>
       </c>
       <c r="G47">
-        <v>50.82929832396641</v>
+        <v>161.4412915504206</v>
       </c>
       <c r="H47">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I47">
-        <v>796.4112316304731</v>
+        <v>1207.199736144878</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>916.7002085125147</v>
+        <v>688.2377987025342</v>
       </c>
       <c r="C48">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D48">
-        <v>97.3762793877064</v>
+        <v>309.5424465900578</v>
       </c>
       <c r="E48">
-        <v>44.96374969006341</v>
+        <v>143.7773656097285</v>
       </c>
       <c r="F48">
-        <v>123.4191811277888</v>
+        <v>391.0464951888827</v>
       </c>
       <c r="G48">
-        <v>96.57566681553615</v>
+        <v>306.738453945799</v>
       </c>
       <c r="H48">
-        <v>13.74459856140905</v>
+        <v>43.95011951059259</v>
       </c>
       <c r="I48">
-        <v>1292.847731597151</v>
+        <v>1883.510270176943</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1054.226931701568</v>
+        <v>791.4897543053289</v>
       </c>
       <c r="C49">
-        <v>0.06186136557491621</v>
+        <v>0.197809663043902</v>
       </c>
       <c r="D49">
-        <v>89.35705637930707</v>
+        <v>284.0507156944059</v>
       </c>
       <c r="E49">
-        <v>25.11488721426965</v>
+        <v>80.3080780883168</v>
       </c>
       <c r="F49">
-        <v>102.4001939488204</v>
+        <v>324.4490571436145</v>
       </c>
       <c r="G49">
-        <v>55.91222815636303</v>
+        <v>177.5854207054625</v>
       </c>
       <c r="H49">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I49">
-        <v>1334.474096452815</v>
+        <v>1681.746284567415</v>
       </c>
     </row>
   </sheetData>
